--- a/ETI/model/ETI_output.xlsx
+++ b/ETI/model/ETI_output.xlsx
@@ -1572,1208 +1572,1208 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="n">
-        <v>375.6864013671875</v>
+        <v>375.1114196777344</v>
       </c>
       <c r="B2" t="n">
-        <v>7.474810600280762</v>
+        <v>7.38615894317627</v>
       </c>
       <c r="C2" t="s"/>
       <c r="D2" t="n">
-        <v>0.03220867365598679</v>
+        <v>0.03185811638832092</v>
       </c>
       <c r="E2" t="n">
-        <v>0.104709580540657</v>
+        <v>0.104877233505249</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1365067064762115</v>
+        <v>0.136614516377449</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="n">
-        <v>372.5610961914062</v>
+        <v>371.8367919921875</v>
       </c>
       <c r="B3" t="n">
-        <v>7.649565696716309</v>
+        <v>7.602047920227051</v>
       </c>
       <c r="C3" t="s"/>
       <c r="D3" t="n">
-        <v>0.03781638666987419</v>
+        <v>0.0375564843416214</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1042811051011086</v>
+        <v>0.1045085340738297</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1418290585279465</v>
+        <v>0.1420480459928513</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="n">
-        <v>368.5287170410156</v>
+        <v>368.1822204589844</v>
       </c>
       <c r="B4" t="n">
-        <v>7.768779754638672</v>
+        <v>7.778855323791504</v>
       </c>
       <c r="C4" t="s"/>
       <c r="D4" t="n">
-        <v>0.0425809808075428</v>
+        <v>0.04255933687090874</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1037271767854691</v>
+        <v>0.1035016179084778</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1459325850009918</v>
+        <v>0.1461011618375778</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="n">
-        <v>369.0444641113281</v>
+        <v>369.4493103027344</v>
       </c>
       <c r="B5" t="n">
-        <v>6.278249263763428</v>
+        <v>6.287360191345215</v>
       </c>
       <c r="C5" t="s"/>
       <c r="D5" t="n">
-        <v>0.02698503248393536</v>
+        <v>0.02770492993295193</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09035412967205048</v>
+        <v>0.08975948393344879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1170929148793221</v>
+        <v>0.1174867153167725</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="n">
-        <v>366.1355590820312</v>
+        <v>366.5808715820312</v>
       </c>
       <c r="B6" t="n">
-        <v>6.430728912353516</v>
+        <v>6.475625991821289</v>
       </c>
       <c r="C6" t="s"/>
       <c r="D6" t="n">
-        <v>0.0318128727376461</v>
+        <v>0.03237061202526093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09016428887844086</v>
+        <v>0.08986933529376984</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1220142841339111</v>
+        <v>0.1222880631685257</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="n">
-        <v>362.0519409179688</v>
+        <v>363.1397705078125</v>
       </c>
       <c r="B7" t="n">
-        <v>6.497668266296387</v>
+        <v>6.591244220733643</v>
       </c>
       <c r="C7" t="s"/>
       <c r="D7" t="n">
-        <v>0.03540287911891937</v>
+        <v>0.03574329614639282</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08986200392246246</v>
+        <v>0.08956506103277206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1253152638673782</v>
+        <v>0.1252726763486862</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="n">
-        <v>362.5049743652344</v>
+        <v>363.268798828125</v>
       </c>
       <c r="B8" t="n">
-        <v>5.574110984802246</v>
+        <v>5.569923400878906</v>
       </c>
       <c r="C8" t="s"/>
       <c r="D8" t="n">
-        <v>0.02235886640846729</v>
+        <v>0.0225511658936739</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0899936854839325</v>
+        <v>0.0897347629070282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1121795997023582</v>
+        <v>0.1124328821897507</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="n">
-        <v>359.4690246582031</v>
+        <v>360.2984924316406</v>
       </c>
       <c r="B9" t="n">
-        <v>5.68364429473877</v>
+        <v>5.693961143493652</v>
       </c>
       <c r="C9" t="s"/>
       <c r="D9" t="n">
-        <v>0.02643365412950516</v>
+        <v>0.02648111246526241</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09015560150146484</v>
+        <v>0.09011253714561462</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1166185736656189</v>
+        <v>0.1167586371302605</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="n">
-        <v>356.0726013183594</v>
+        <v>357.109619140625</v>
       </c>
       <c r="B10" t="n">
-        <v>5.749781608581543</v>
+        <v>5.782370567321777</v>
       </c>
       <c r="C10" t="s"/>
       <c r="D10" t="n">
-        <v>0.02930313348770142</v>
+        <v>0.0290807131677866</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08994022011756897</v>
+        <v>0.08984209597110748</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1192847192287445</v>
+        <v>0.1189587414264679</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="n">
-        <v>355.0339050292969</v>
+        <v>355.6336975097656</v>
       </c>
       <c r="B11" t="n">
-        <v>4.985329151153564</v>
+        <v>4.981329917907715</v>
       </c>
       <c r="C11" t="s"/>
       <c r="D11" t="n">
-        <v>0.01871450990438461</v>
+        <v>0.01852734759449959</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09308838844299316</v>
+        <v>0.09310172498226166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1117701828479767</v>
+        <v>0.1118234768509865</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="n">
-        <v>353.1420288085938</v>
+        <v>353.8937072753906</v>
       </c>
       <c r="B12" t="n">
-        <v>5.077510356903076</v>
+        <v>5.073362827301025</v>
       </c>
       <c r="C12" t="s"/>
       <c r="D12" t="n">
-        <v>0.02137303166091442</v>
+        <v>0.021199781447649</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09332873672246933</v>
+        <v>0.09333948791027069</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1146560460329056</v>
+        <v>0.1147534847259521</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="n">
-        <v>350.0979614257812</v>
+        <v>350.9418029785156</v>
       </c>
       <c r="B13" t="n">
-        <v>5.087157726287842</v>
+        <v>5.076401233673096</v>
       </c>
       <c r="C13" t="s"/>
       <c r="D13" t="n">
-        <v>0.0228436291217804</v>
+        <v>0.02256498113274574</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09318133443593979</v>
+        <v>0.0930199921131134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.115888386964798</v>
+        <v>0.1156685724854469</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="n">
-        <v>350.0824279785156</v>
+        <v>351.0738220214844</v>
       </c>
       <c r="B14" t="n">
-        <v>4.1898512840271</v>
+        <v>4.187138557434082</v>
       </c>
       <c r="C14" t="s"/>
       <c r="D14" t="n">
-        <v>0.01414407975971699</v>
+        <v>0.01434141583740711</v>
       </c>
       <c r="E14" t="n">
-        <v>0.07973037660121918</v>
+        <v>0.07944342494010925</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09342533349990845</v>
+        <v>0.09388329088687897</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="n">
-        <v>347.9794921875</v>
+        <v>348.5618591308594</v>
       </c>
       <c r="B15" t="n">
-        <v>4.246043682098389</v>
+        <v>4.236761569976807</v>
       </c>
       <c r="C15" t="s"/>
       <c r="D15" t="n">
-        <v>0.0165547076612711</v>
+        <v>0.01648425683379173</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07987146824598312</v>
+        <v>0.07984864711761475</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09609735012054443</v>
+        <v>0.09635892510414124</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="n">
-        <v>344.9365539550781</v>
+        <v>345.6087341308594</v>
       </c>
       <c r="B16" t="n">
-        <v>4.221386909484863</v>
+        <v>4.205830574035645</v>
       </c>
       <c r="C16" t="s"/>
       <c r="D16" t="n">
-        <v>0.01673402823507786</v>
+        <v>0.01675423234701157</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07988758385181427</v>
+        <v>0.08013570308685303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09636786580085754</v>
+        <v>0.09662779420614243</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="n">
-        <v>350.3961181640625</v>
+        <v>349.9136962890625</v>
       </c>
       <c r="B17" t="n">
-        <v>4.190247058868408</v>
+        <v>4.177772998809814</v>
       </c>
       <c r="C17" t="s"/>
       <c r="D17" t="n">
-        <v>0.01447739452123642</v>
+        <v>0.0141643937677145</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08002413809299469</v>
+        <v>0.08007577061653137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09430251270532608</v>
+        <v>0.0943630039691925</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="n">
-        <v>347.96630859375</v>
+        <v>347.4673461914062</v>
       </c>
       <c r="B18" t="n">
-        <v>4.226117610931396</v>
+        <v>4.215503692626953</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
-        <v>0.01649297028779984</v>
+        <v>0.01607896573841572</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08040837943553925</v>
+        <v>0.08048434555530548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09668710827827454</v>
+        <v>0.0966087281703949</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="n">
-        <v>345.1131286621094</v>
+        <v>345.0349731445312</v>
       </c>
       <c r="B19" t="n">
-        <v>4.19760799407959</v>
+        <v>4.184813022613525</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
-        <v>0.01635679602622986</v>
+        <v>0.01617584191262722</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08052510023117065</v>
+        <v>0.08069328963756561</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09665045887231827</v>
+        <v>0.09664443135261536</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="n">
-        <v>347.1950073242188</v>
+        <v>347.4080505371094</v>
       </c>
       <c r="B20" t="n">
-        <v>4.282254219055176</v>
+        <v>4.296110153198242</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
-        <v>0.01388248801231384</v>
+        <v>0.01409702189266682</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0930984765291214</v>
+        <v>0.09290303289890289</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1070009022951126</v>
+        <v>0.1070760115981102</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="n">
-        <v>346.09619140625</v>
+        <v>346.0423278808594</v>
       </c>
       <c r="B21" t="n">
-        <v>4.295844078063965</v>
+        <v>4.301774978637695</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
-        <v>0.01489635370671749</v>
+        <v>0.01511090993881226</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0932186096906662</v>
+        <v>0.09302350878715515</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1080719083547592</v>
+        <v>0.1082291901111603</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="n">
-        <v>343.3150634765625</v>
+        <v>343.4186706542969</v>
       </c>
       <c r="B22" t="n">
-        <v>4.282074451446533</v>
+        <v>4.258569240570068</v>
       </c>
       <c r="C22" t="s"/>
       <c r="D22" t="n">
-        <v>0.01517497561872005</v>
+        <v>0.01556385681033134</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09346594661474228</v>
+        <v>0.0931350439786911</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1084840595722198</v>
+        <v>0.1086713373661041</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="n">
-        <v>348.3310241699219</v>
+        <v>347.759521484375</v>
       </c>
       <c r="B23" t="n">
-        <v>4.112059593200684</v>
+        <v>4.094886779785156</v>
       </c>
       <c r="C23" t="s"/>
       <c r="D23" t="n">
-        <v>0.01389089971780777</v>
+        <v>0.01367605477571487</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08277727663516998</v>
+        <v>0.0828513503074646</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09652359783649445</v>
+        <v>0.09660229831933975</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="n">
-        <v>346.7432861328125</v>
+        <v>345.7598876953125</v>
       </c>
       <c r="B24" t="n">
-        <v>4.142346858978271</v>
+        <v>4.116158485412598</v>
       </c>
       <c r="C24" t="s"/>
       <c r="D24" t="n">
-        <v>0.01547079719603062</v>
+        <v>0.01514573954045773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08298543840646744</v>
+        <v>0.08313991129398346</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09833525121212006</v>
+        <v>0.09832970798015594</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="n">
-        <v>344.0846557617188</v>
+        <v>343.0750732421875</v>
       </c>
       <c r="B25" t="n">
-        <v>4.115091800689697</v>
+        <v>4.074405193328857</v>
       </c>
       <c r="C25" t="s"/>
       <c r="D25" t="n">
-        <v>0.01530292630195618</v>
+        <v>0.01519590057432652</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08318260312080383</v>
+        <v>0.08340770751237869</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09841578453779221</v>
+        <v>0.09843087196350098</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="n">
-        <v>366.2835998535156</v>
+        <v>366.6071472167969</v>
       </c>
       <c r="B26" t="n">
-        <v>4.816357135772705</v>
+        <v>4.792646884918213</v>
       </c>
       <c r="C26" t="s"/>
       <c r="D26" t="n">
-        <v>0.01789681613445282</v>
+        <v>0.01845476590096951</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06432342529296875</v>
+        <v>0.06398452073335648</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08204644918441772</v>
+        <v>0.08246912807226181</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="n">
-        <v>364.10302734375</v>
+        <v>363.8474731445312</v>
       </c>
       <c r="B27" t="n">
-        <v>4.827282905578613</v>
+        <v>4.820278644561768</v>
       </c>
       <c r="C27" t="s"/>
       <c r="D27" t="n">
-        <v>0.01705779694020748</v>
+        <v>0.01711713708937168</v>
       </c>
       <c r="E27" t="n">
-        <v>0.07105570286512375</v>
+        <v>0.07082541286945343</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08822822570800781</v>
+        <v>0.08808162808418274</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="n">
-        <v>360.8190307617188</v>
+        <v>359.7904052734375</v>
       </c>
       <c r="B28" t="n">
-        <v>4.929991245269775</v>
+        <v>4.937722682952881</v>
       </c>
       <c r="C28" t="s"/>
       <c r="D28" t="n">
-        <v>0.01582523062825203</v>
+        <v>0.01514766924083233</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0868053138256073</v>
+        <v>0.08717375993728638</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1026033982634544</v>
+        <v>0.102439671754837</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="n">
-        <v>351.4837951660156</v>
+        <v>351.3866882324219</v>
       </c>
       <c r="B29" t="n">
-        <v>3.751609802246094</v>
+        <v>3.751225709915161</v>
       </c>
       <c r="C29" t="s"/>
       <c r="D29" t="n">
-        <v>0.01055982522666454</v>
+        <v>0.01052068918943405</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06597534567117691</v>
+        <v>0.06552109867334366</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07647913694381714</v>
+        <v>0.07618196308612823</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="n">
-        <v>348.4953308105469</v>
+        <v>347.6446533203125</v>
       </c>
       <c r="B30" t="n">
-        <v>3.834081172943115</v>
+        <v>3.856030702590942</v>
       </c>
       <c r="C30" t="s"/>
       <c r="D30" t="n">
-        <v>0.009370085783302784</v>
+        <v>0.009072437882423401</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0805974081158638</v>
+        <v>0.0805145800113678</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08993241935968399</v>
+        <v>0.08964376151561737</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="n">
-        <v>350.7140197753906</v>
+        <v>351.1595458984375</v>
       </c>
       <c r="B31" t="n">
-        <v>3.249170303344727</v>
+        <v>3.218011140823364</v>
       </c>
       <c r="C31" t="s"/>
       <c r="D31" t="n">
-        <v>0.009438490495085716</v>
+        <v>0.009794923476874828</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04833149537444115</v>
+        <v>0.04812889918684959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05756442621350288</v>
+        <v>0.05785742029547691</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="n">
-        <v>343.1415405273438</v>
+        <v>342.3512268066406</v>
       </c>
       <c r="B32" t="n">
-        <v>3.474892616271973</v>
+        <v>3.438423156738281</v>
       </c>
       <c r="C32" t="s"/>
       <c r="D32" t="n">
-        <v>0.007074847817420959</v>
+        <v>0.006970780901610851</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08040104806423187</v>
+        <v>0.0806303471326828</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08765939623117447</v>
+        <v>0.08732269704341888</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="n">
-        <v>355.1809692382812</v>
+        <v>354.9501342773438</v>
       </c>
       <c r="B33" t="n">
-        <v>4.355807781219482</v>
+        <v>4.326498031616211</v>
       </c>
       <c r="C33" t="s"/>
       <c r="D33" t="n">
-        <v>0.01327540911734104</v>
+        <v>0.01289411075413227</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07955338060855865</v>
+        <v>0.07993721961975098</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09272630512714386</v>
+        <v>0.09288217127323151</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="n">
-        <v>360.4241027832031</v>
+        <v>361.1456909179688</v>
       </c>
       <c r="B34" t="n">
-        <v>4.219573020935059</v>
+        <v>4.184739112854004</v>
       </c>
       <c r="C34" t="s"/>
       <c r="D34" t="n">
-        <v>0.01499538496136665</v>
+        <v>0.01523725874722004</v>
       </c>
       <c r="E34" t="n">
-        <v>0.05867159366607666</v>
+        <v>0.05857002735137939</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07346385717391968</v>
+        <v>0.07387509196996689</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="n">
-        <v>362.7505798339844</v>
+        <v>362.9698486328125</v>
       </c>
       <c r="B35" t="n">
-        <v>4.187346458435059</v>
+        <v>4.139910697937012</v>
       </c>
       <c r="C35" t="s"/>
       <c r="D35" t="n">
-        <v>0.01569805853068829</v>
+        <v>0.01575507596135139</v>
       </c>
       <c r="E35" t="n">
-        <v>0.05236928164958954</v>
+        <v>0.05253925919532776</v>
       </c>
       <c r="F35" t="n">
-        <v>0.06824537366628647</v>
+        <v>0.06829772144556046</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="n">
-        <v>368.386962890625</v>
+        <v>367.1059265136719</v>
       </c>
       <c r="B36" t="n">
-        <v>5.597663402557373</v>
+        <v>5.593170166015625</v>
       </c>
       <c r="C36" t="s"/>
       <c r="D36" t="n">
-        <v>0.02009047754108906</v>
+        <v>0.02015076577663422</v>
       </c>
       <c r="E36" t="n">
-        <v>0.08547582477331161</v>
+        <v>0.08548418432474136</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1055061817169189</v>
+        <v>0.1055847778916359</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="n">
-        <v>367.3374938964844</v>
+        <v>368.3359375</v>
       </c>
       <c r="B37" t="n">
-        <v>4.572253227233887</v>
+        <v>4.572916984558105</v>
       </c>
       <c r="C37" t="s"/>
       <c r="D37" t="n">
-        <v>0.00860970001667738</v>
+        <v>0.009062208235263824</v>
       </c>
       <c r="E37" t="n">
-        <v>0.07169200479984283</v>
+        <v>0.07147636264562607</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08011103421449661</v>
+        <v>0.0805598571896553</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="n">
-        <v>370.2861022949219</v>
+        <v>371.0130004882812</v>
       </c>
       <c r="B38" t="n">
-        <v>4.525289058685303</v>
+        <v>4.519431591033936</v>
       </c>
       <c r="C38" t="s"/>
       <c r="D38" t="n">
-        <v>0.009089358150959015</v>
+        <v>0.00961728859692812</v>
       </c>
       <c r="E38" t="n">
-        <v>0.064708411693573</v>
+        <v>0.06439712643623352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07365250587463379</v>
+        <v>0.07402388751506805</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="n">
-        <v>362.5738830566406</v>
+        <v>363.0501708984375</v>
       </c>
       <c r="B39" t="n">
-        <v>4.699827194213867</v>
+        <v>4.711105346679688</v>
       </c>
       <c r="C39" t="s"/>
       <c r="D39" t="n">
-        <v>0.008859318681061268</v>
+        <v>0.008376304060220718</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0866994708776474</v>
+        <v>0.0871976763010025</v>
       </c>
       <c r="F39" t="n">
-        <v>0.09560936689376831</v>
+        <v>0.09548646211624146</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="n">
-        <v>380.5281066894531</v>
+        <v>379.2595825195312</v>
       </c>
       <c r="B40" t="n">
-        <v>4.435313701629639</v>
+        <v>4.447775840759277</v>
       </c>
       <c r="C40" t="s"/>
       <c r="D40" t="n">
-        <v>0.01178962644189596</v>
+        <v>0.01124586351215839</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04734741523861885</v>
+        <v>0.04732072353363037</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05884340032935143</v>
+        <v>0.05826485157012939</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="n">
-        <v>354.2841796875</v>
+        <v>354.1192626953125</v>
       </c>
       <c r="B41" t="n">
-        <v>3.157739639282227</v>
+        <v>3.185256958007812</v>
       </c>
       <c r="C41" t="s"/>
       <c r="D41" t="n">
-        <v>0.006518489681184292</v>
+        <v>0.006704138126224279</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04794356599450111</v>
+        <v>0.04801076650619507</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0545223280787468</v>
+        <v>0.05478671938180923</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="n">
-        <v>351.2789916992188</v>
+        <v>351.8773498535156</v>
       </c>
       <c r="B42" t="n">
-        <v>3.200993776321411</v>
+        <v>3.212217807769775</v>
       </c>
       <c r="C42" t="s"/>
       <c r="D42" t="n">
-        <v>0.006068752147257328</v>
+        <v>0.006382456049323082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05404549837112427</v>
+        <v>0.05382325872778893</v>
       </c>
       <c r="F42" t="n">
-        <v>0.05987011268734932</v>
+        <v>0.06027787923812866</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="n">
-        <v>348.7987060546875</v>
+        <v>349.3218078613281</v>
       </c>
       <c r="B43" t="n">
-        <v>3.232722759246826</v>
+        <v>3.225723266601562</v>
       </c>
       <c r="C43" t="s"/>
       <c r="D43" t="n">
-        <v>0.005658344831317663</v>
+        <v>0.005841758102178574</v>
       </c>
       <c r="E43" t="n">
-        <v>0.05942610278725624</v>
+        <v>0.05919788032770157</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06491345167160034</v>
+        <v>0.06507767736911774</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="n">
-        <v>346.4693603515625</v>
+        <v>347.2999267578125</v>
       </c>
       <c r="B44" t="n">
-        <v>3.293210744857788</v>
+        <v>3.289045572280884</v>
       </c>
       <c r="C44" t="s"/>
       <c r="D44" t="n">
-        <v>0.005493561737239361</v>
+        <v>0.005746732000261545</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06629022210836411</v>
+        <v>0.06594192236661911</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07146640121936798</v>
+        <v>0.07165883481502533</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="n">
-        <v>344.3600769042969</v>
+        <v>345.3062744140625</v>
       </c>
       <c r="B45" t="n">
-        <v>3.350468158721924</v>
+        <v>3.362380504608154</v>
       </c>
       <c r="C45" t="s"/>
       <c r="D45" t="n">
-        <v>0.005292951129376888</v>
+        <v>0.005662826821208</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07378727197647095</v>
+        <v>0.0733167827129364</v>
       </c>
       <c r="F45" t="n">
-        <v>0.07879196107387543</v>
+        <v>0.07884455472230911</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="n">
-        <v>342.6840209960938</v>
+        <v>342.7137145996094</v>
       </c>
       <c r="B46" t="n">
-        <v>3.394529342651367</v>
+        <v>3.402487277984619</v>
       </c>
       <c r="C46" t="s"/>
       <c r="D46" t="n">
-        <v>0.005311198066920042</v>
+        <v>0.005498901009559631</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08079672604799271</v>
+        <v>0.08063699305057526</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0862581729888916</v>
+        <v>0.08582492172718048</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="n">
-        <v>359.0163269042969</v>
+        <v>360.0294494628906</v>
       </c>
       <c r="B47" t="n">
-        <v>4.10975170135498</v>
+        <v>4.116836547851562</v>
       </c>
       <c r="C47" t="s"/>
       <c r="D47" t="n">
-        <v>0.007571122609078884</v>
+        <v>0.007601233199238777</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07220469415187836</v>
+        <v>0.07225602120161057</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07967419922351837</v>
+        <v>0.07992933690547943</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="n">
-        <v>361.9433288574219</v>
+        <v>362.5635681152344</v>
       </c>
       <c r="B48" t="n">
-        <v>4.054356575012207</v>
+        <v>4.052030563354492</v>
       </c>
       <c r="C48" t="s"/>
       <c r="D48" t="n">
-        <v>0.007800797466188669</v>
+        <v>0.00784032791852951</v>
       </c>
       <c r="E48" t="n">
-        <v>0.06461542844772339</v>
+        <v>0.06474253535270691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07249726355075836</v>
+        <v>0.07268467545509338</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="n">
-        <v>365.0180053710938</v>
+        <v>365.5926208496094</v>
       </c>
       <c r="B49" t="n">
-        <v>4.040782451629639</v>
+        <v>4.040493488311768</v>
       </c>
       <c r="C49" t="s"/>
       <c r="D49" t="n">
-        <v>0.008607102558016777</v>
+        <v>0.00875546783208847</v>
       </c>
       <c r="E49" t="n">
-        <v>0.05854154005646706</v>
+        <v>0.05861413478851318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06705160439014435</v>
+        <v>0.06745795905590057</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="n">
-        <v>368.35498046875</v>
+        <v>367.8092041015625</v>
       </c>
       <c r="B50" t="n">
-        <v>3.94388222694397</v>
+        <v>3.965323209762573</v>
       </c>
       <c r="C50" t="s"/>
       <c r="D50" t="n">
-        <v>0.008490120060741901</v>
+        <v>0.00822350662201643</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05216629058122635</v>
+        <v>0.05229894444346428</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06109664961695671</v>
+        <v>0.06057864800095558</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="n">
-        <v>371.3742065429688</v>
+        <v>370.121826171875</v>
       </c>
       <c r="B51" t="n">
-        <v>3.951313018798828</v>
+        <v>3.970535755157471</v>
       </c>
       <c r="C51" t="s"/>
       <c r="D51" t="n">
-        <v>0.009985214099287987</v>
+        <v>0.009434097446501255</v>
       </c>
       <c r="E51" t="n">
-        <v>0.04665469378232956</v>
+        <v>0.0472579151391983</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05700454860925674</v>
+        <v>0.056646928191185</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="n">
-        <v>371.5724792480469</v>
+        <v>372.2599182128906</v>
       </c>
       <c r="B52" t="n">
-        <v>5.157867431640625</v>
+        <v>5.170796871185303</v>
       </c>
       <c r="C52" t="s"/>
       <c r="D52" t="n">
-        <v>0.008420831523835659</v>
+        <v>0.00874621793627739</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08465208858251572</v>
+        <v>0.08452926576137543</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09283556044101715</v>
+        <v>0.09312146157026291</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="n">
-        <v>374.126220703125</v>
+        <v>375.1812744140625</v>
       </c>
       <c r="B53" t="n">
-        <v>5.110013961791992</v>
+        <v>5.111719608306885</v>
       </c>
       <c r="C53" t="s"/>
       <c r="D53" t="n">
-        <v>0.008564433082938194</v>
+        <v>0.009544745087623596</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07724650204181671</v>
+        <v>0.07644551992416382</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08546648174524307</v>
+        <v>0.0858679860830307</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="n">
-        <v>349.4173889160156</v>
+        <v>349.7019653320312</v>
       </c>
       <c r="B54" t="n">
-        <v>3.790131092071533</v>
+        <v>3.788541555404663</v>
       </c>
       <c r="C54" t="s"/>
       <c r="D54" t="n">
-        <v>0.007130718324333429</v>
+        <v>0.006793451029807329</v>
       </c>
       <c r="E54" t="n">
-        <v>0.08037815988063812</v>
+        <v>0.08070611208677292</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08762432634830475</v>
+        <v>0.08736546337604523</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="n">
-        <v>351.1786499023438</v>
+        <v>351.9588623046875</v>
       </c>
       <c r="B55" t="n">
-        <v>3.714963436126709</v>
+        <v>3.704530239105225</v>
       </c>
       <c r="C55" t="s"/>
       <c r="D55" t="n">
-        <v>0.007113971747457981</v>
+        <v>0.007003900595009327</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0723758339881897</v>
+        <v>0.07252711802721024</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07932602614164352</v>
+        <v>0.07952232658863068</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="n">
-        <v>353.4842529296875</v>
+        <v>354.3854675292969</v>
       </c>
       <c r="B56" t="n">
-        <v>3.665181636810303</v>
+        <v>3.653506278991699</v>
       </c>
       <c r="C56" t="s"/>
       <c r="D56" t="n">
-        <v>0.007204090245068073</v>
+        <v>0.007224636152386665</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06560452282428741</v>
+        <v>0.06569040566682816</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07258341461420059</v>
+        <v>0.07298357784748077</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="n">
-        <v>356.8648986816406</v>
+        <v>357.2543640136719</v>
       </c>
       <c r="B57" t="n">
-        <v>4.184035778045654</v>
+        <v>4.187509536743164</v>
       </c>
       <c r="C57" t="s"/>
       <c r="D57" t="n">
-        <v>0.007921134121716022</v>
+        <v>0.007470602635294199</v>
       </c>
       <c r="E57" t="n">
-        <v>0.07950480282306671</v>
+        <v>0.08000507950782776</v>
       </c>
       <c r="F57" t="n">
-        <v>0.08751371502876282</v>
+        <v>0.08744919300079346</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="n">
-        <v>341.7408752441406</v>
+        <v>340.0928649902344</v>
       </c>
       <c r="B58" t="n">
-        <v>3.536209583282471</v>
+        <v>3.508154392242432</v>
       </c>
       <c r="C58" t="s"/>
       <c r="D58" t="n">
-        <v>0.009402209892868996</v>
+        <v>0.009557659737765789</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08180498331785202</v>
+        <v>0.08165884017944336</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09111132472753525</v>
+        <v>0.09110093861818314</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="n">
-        <v>347.3878479003906</v>
+        <v>348.1789245605469</v>
       </c>
       <c r="B59" t="n">
-        <v>3.225624322891235</v>
+        <v>3.164417266845703</v>
       </c>
       <c r="C59" t="s"/>
       <c r="D59" t="n">
-        <v>0.01034853421151638</v>
+        <v>0.01049635279923677</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04810666665434837</v>
+        <v>0.04800404235720634</v>
       </c>
       <c r="F59" t="n">
-        <v>0.05841706320643425</v>
+        <v>0.05820796638727188</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="n">
-        <v>349.7601928710938</v>
+        <v>350.1506958007812</v>
       </c>
       <c r="B60" t="n">
-        <v>3.867019653320312</v>
+        <v>3.8191077709198</v>
       </c>
       <c r="C60" t="s"/>
       <c r="D60" t="n">
-        <v>0.01374401152133942</v>
+        <v>0.01358291879296303</v>
       </c>
       <c r="E60" t="n">
-        <v>0.06612309068441391</v>
+        <v>0.06611843407154083</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0795261338353157</v>
+        <v>0.07972152531147003</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="n">
-        <v>348.1246337890625</v>
+        <v>347.0634765625</v>
       </c>
       <c r="B61" t="n">
-        <v>4.007572650909424</v>
+        <v>3.971399307250977</v>
       </c>
       <c r="C61" t="s"/>
       <c r="D61" t="n">
-        <v>0.01332884281873703</v>
+        <v>0.01293204165995121</v>
       </c>
       <c r="E61" t="n">
-        <v>0.08009339869022369</v>
+        <v>0.08034324645996094</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09332653880119324</v>
+        <v>0.09333020448684692</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="n">
-        <v>353.6097106933594</v>
+        <v>352.9114074707031</v>
       </c>
       <c r="B62" t="n">
-        <v>4.472923755645752</v>
+        <v>4.447301864624023</v>
       </c>
       <c r="C62" t="s"/>
       <c r="D62" t="n">
-        <v>0.01685146801173687</v>
+        <v>0.01639317721128464</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07997078448534012</v>
+        <v>0.08026418089866638</v>
       </c>
       <c r="F62" t="n">
-        <v>0.096754290163517</v>
+        <v>0.09679253399372101</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="n">
-        <v>357.8938598632812</v>
+        <v>358.3582153320312</v>
       </c>
       <c r="B63" t="n">
-        <v>4.320336818695068</v>
+        <v>4.264813899993896</v>
       </c>
       <c r="C63" t="s"/>
       <c r="D63" t="n">
-        <v>0.01824615336954594</v>
+        <v>0.01792787574231625</v>
       </c>
       <c r="E63" t="n">
-        <v>0.05862259864807129</v>
+        <v>0.05898639932274818</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07719802856445312</v>
+        <v>0.07690146565437317</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="n">
-        <v>359.92578125</v>
+        <v>360.6384887695312</v>
       </c>
       <c r="B64" t="n">
-        <v>4.267280101776123</v>
+        <v>4.203911781311035</v>
       </c>
       <c r="C64" t="s"/>
       <c r="D64" t="n">
-        <v>0.01837314106523991</v>
+        <v>0.018080934882164</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05223897099494934</v>
+        <v>0.05276375636458397</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07123710960149765</v>
+        <v>0.07074938714504242</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="n">
-        <v>366.4388427734375</v>
+        <v>364.6886596679688</v>
       </c>
       <c r="B65" t="n">
-        <v>5.820499420166016</v>
+        <v>5.835521221160889</v>
       </c>
       <c r="C65" t="s"/>
       <c r="D65" t="n">
-        <v>0.02595799788832664</v>
+        <v>0.02587573975324631</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08518044650554657</v>
+        <v>0.08525938540697098</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1113700270652771</v>
+        <v>0.111197367310524</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="n">
-        <v>363.0462951660156</v>
+        <v>363.298583984375</v>
       </c>
       <c r="B66" t="n">
-        <v>4.803242206573486</v>
+        <v>4.776291847229004</v>
       </c>
       <c r="C66" t="s"/>
       <c r="D66" t="n">
-        <v>0.02027653343975544</v>
+        <v>0.02042612433433533</v>
       </c>
       <c r="E66" t="n">
-        <v>0.06421029567718506</v>
+        <v>0.06422010064125061</v>
       </c>
       <c r="F66" t="n">
-        <v>0.08464603126049042</v>
+        <v>0.08468816429376602</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="n">
-        <v>360.9880065917969</v>
+        <v>360.9195861816406</v>
       </c>
       <c r="B67" t="n">
-        <v>4.911127090454102</v>
+        <v>4.897733211517334</v>
       </c>
       <c r="C67" t="s"/>
       <c r="D67" t="n">
-        <v>0.02091443724930286</v>
+        <v>0.02088297158479691</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07138632237911224</v>
+        <v>0.07144181430339813</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09236647188663483</v>
+        <v>0.09242021292448044</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="n">
-        <v>360.1287231445312</v>
+        <v>358.8462524414062</v>
       </c>
       <c r="B68" t="n">
-        <v>5.058305263519287</v>
+        <v>5.037734508514404</v>
       </c>
       <c r="C68" t="s"/>
       <c r="D68" t="n">
-        <v>0.01881502568721771</v>
+        <v>0.01821324601769447</v>
       </c>
       <c r="E68" t="n">
-        <v>0.08667128533124924</v>
+        <v>0.08717171847820282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1056309267878532</v>
+        <v>0.1054729148745537</v>
       </c>
     </row>
   </sheetData>

--- a/ETI/model/ETI_output.xlsx
+++ b/ETI/model/ETI_output.xlsx
@@ -1542,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F68"/>
@@ -2774,6 +2774,7242 @@
       </c>
       <c r="F68" t="n">
         <v>0.1054729148745537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="n">
+        <v>375.3529663085938</v>
+      </c>
+      <c r="B69" t="n">
+        <v>7.442811012268066</v>
+      </c>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>0.03224484249949455</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.1047361940145493</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.1364866644144058</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="n">
+        <v>372.2806396484375</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7.628493309020996</v>
+      </c>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>0.03793239966034889</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.1048157662153244</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1418643891811371</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="n">
+        <v>368.3669738769531</v>
+      </c>
+      <c r="B71" t="n">
+        <v>7.781820297241211</v>
+      </c>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>0.04291407763957977</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.1044288948178291</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1464435011148453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="n">
+        <v>369.3777770996094</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6.290216445922852</v>
+      </c>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>0.02725344523787498</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.09016032516956329</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1181048005819321</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="n">
+        <v>366.4077453613281</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6.451438903808594</v>
+      </c>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>0.03186338767409325</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.09027260541915894</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1227067410945892</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="n">
+        <v>362.3325500488281</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6.539740562438965</v>
+      </c>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>0.03521730378270149</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.08996175229549408</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1258636862039566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="n">
+        <v>362.6586608886719</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.571273803710938</v>
+      </c>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>0.02241223119199276</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.08978481590747833</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.113235779106617</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="n">
+        <v>359.6652221679688</v>
+      </c>
+      <c r="B76" t="n">
+        <v>5.677091121673584</v>
+      </c>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>0.02638118155300617</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.09018868207931519</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1173945218324661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="n">
+        <v>356.2499694824219</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.738119125366211</v>
+      </c>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>0.02909452840685844</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.08986857533454895</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.119380846619606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="n">
+        <v>355.0458679199219</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.975475788116455</v>
+      </c>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>0.01862424798309803</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.09312065690755844</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1128010153770447</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="n">
+        <v>353.3226013183594</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.066409587860107</v>
+      </c>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>0.02142971940338612</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.09352162480354309</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1157565861940384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="n">
+        <v>350.4302368164062</v>
+      </c>
+      <c r="B80" t="n">
+        <v>5.06251049041748</v>
+      </c>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>0.02304811030626297</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0932338684797287</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1164475977420807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="n">
+        <v>350.4556884765625</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4.204421997070312</v>
+      </c>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>0.01424306444823742</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.07954157888889313</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.09447375684976578</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="n">
+        <v>348.1979675292969</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4.244950294494629</v>
+      </c>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>0.01634329557418823</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.07981105148792267</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.09622129052877426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="n">
+        <v>344.9954223632812</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.195296287536621</v>
+      </c>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>0.01627011597156525</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.07954125851392746</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.09543409943580627</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="n">
+        <v>350.3663635253906</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.174856185913086</v>
+      </c>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>0.01414909772574902</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.08018146455287933</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.09390119463205338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="n">
+        <v>347.9240112304688</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.214372634887695</v>
+      </c>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>0.0160207524895668</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.08055819571018219</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.09582303464412689</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="n">
+        <v>345.0854187011719</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.17524242401123</v>
+      </c>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>0.01578510738909245</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.08035013824701309</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.09519807249307632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="n">
+        <v>347.3436889648438</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.293395042419434</v>
+      </c>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>0.01412226632237434</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.09329633414745331</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1082786619663239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="n">
+        <v>346.2713928222656</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.301184177398682</v>
+      </c>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>0.01526922546327114</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.09352746605873108</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1091929003596306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="n">
+        <v>343.7447814941406</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.269122123718262</v>
+      </c>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>0.0159093514084816</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.093659907579422</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1093257367610931</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="n">
+        <v>348.3077087402344</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.094757080078125</v>
+      </c>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>0.01371630653738976</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.08283710479736328</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.09618602693080902</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="n">
+        <v>346.5850219726562</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.114861965179443</v>
+      </c>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>0.01521540246903896</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.08304181694984436</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.09735937416553497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="n">
+        <v>343.8416442871094</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.06458044052124</v>
+      </c>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>0.01499937102198601</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.08290025591850281</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.09654958546161652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="n">
+        <v>366.7403869628906</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.788243293762207</v>
+      </c>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>0.01787788234651089</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.06427127867937088</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.08258353173732758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="n">
+        <v>364.1257629394531</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.801249027252197</v>
+      </c>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>0.01660705171525478</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.07174414396286011</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.08809699863195419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="n">
+        <v>360.3919677734375</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.887647151947021</v>
+      </c>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>0.01527470164000988</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.08709476888179779</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.1016236692667007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="n">
+        <v>351.4862060546875</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.757911205291748</v>
+      </c>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>0.01012226566672325</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06666657328605652</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.07641399651765823</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="n">
+        <v>348.5765380859375</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.841187477111816</v>
+      </c>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>0.008933335542678833</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.08112848550081253</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0895712822675705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="n">
+        <v>350.8852233886719</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.199417591094971</v>
+      </c>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>0.009054694324731827</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.04804511740803719</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.05672729015350342</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="n">
+        <v>343.3821105957031</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.452938079833984</v>
+      </c>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>0.007058290764689445</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0803988128900528</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.08691151440143585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="n">
+        <v>354.9761962890625</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.31894588470459</v>
+      </c>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>0.0131639800965786</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.07940748333930969</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.09237930178642273</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="n">
+        <v>360.8172302246094</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.193094253540039</v>
+      </c>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>0.01471671834588051</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.05865256860852242</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.07386164367198944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="n">
+        <v>363.1115417480469</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.137414932250977</v>
+      </c>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>0.01496146246790886</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.05254796892404556</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.06782308220863342</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="n">
+        <v>367.8299255371094</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5.547255516052246</v>
+      </c>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>0.0203857384622097</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.08510087430477142</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1043708026409149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="n">
+        <v>367.4872741699219</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.584519386291504</v>
+      </c>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>0.00926944799721241</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.07187385857105255</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.08140833675861359</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="n">
+        <v>370.5771179199219</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.532454490661621</v>
+      </c>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>0.009778470732271671</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.06495395302772522</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.07482630759477615</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="n">
+        <v>362.2353820800781</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.688911437988281</v>
+      </c>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>0.008720658719539642</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0865669846534729</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.09562183916568756</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="n">
+        <v>380.7266540527344</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.452096462249756</v>
+      </c>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>0.01156026031821966</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.04729859903454781</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.05799498036503792</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="n">
+        <v>353.8108520507812</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.134817123413086</v>
+      </c>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>0.006670495495200157</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.04769330099225044</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.05394572019577026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="n">
+        <v>351.1220092773438</v>
+      </c>
+      <c r="B109" t="n">
+        <v>3.197254180908203</v>
+      </c>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>0.006517100147902966</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.05372545495629311</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.06015908345580101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="n">
+        <v>348.6788635253906</v>
+      </c>
+      <c r="B110" t="n">
+        <v>3.22990345954895</v>
+      </c>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>0.006063212640583515</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.05936295539140701</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.06520891189575195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="n">
+        <v>346.6885375976562</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.310067415237427</v>
+      </c>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>0.005975585430860519</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.06615012884140015</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.07216204702854156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="n">
+        <v>344.8674621582031</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.387264966964722</v>
+      </c>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>0.005789361894130707</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.07356476038694382</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.07973440736532211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="n">
+        <v>343.1626281738281</v>
+      </c>
+      <c r="B113" t="n">
+        <v>3.413832664489746</v>
+      </c>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>0.005494544748216867</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.08073781430721283</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.08637998998165131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="n">
+        <v>359.0018005371094</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.126011371612549</v>
+      </c>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>0.007883606478571892</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0724019929766655</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.0807766392827034</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="n">
+        <v>361.7691345214844</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.056743621826172</v>
+      </c>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>0.008135026320815086</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.065078966319561</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.07330832630395889</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="n">
+        <v>364.9701843261719</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.04591178894043</v>
+      </c>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>0.009064190089702606</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.05865504592657089</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.06787733733654022</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="n">
+        <v>367.9588012695312</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.951686382293701</v>
+      </c>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>0.008396990597248077</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.05276051536202431</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.06073317676782608</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="n">
+        <v>370.77294921875</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.939718246459961</v>
+      </c>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>0.009710077196359634</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.04700199514627457</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0558609664440155</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="n">
+        <v>371.4725646972656</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.154626846313477</v>
+      </c>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>0.008913399651646614</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.08471161127090454</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.09323804080486298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="n">
+        <v>374.5713500976562</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.127161026000977</v>
+      </c>
+      <c r="C120" t="s"/>
+      <c r="D120" t="n">
+        <v>0.009506325237452984</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.07737085223197937</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.08676935732364655</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="n">
+        <v>349.5193786621094</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.789226531982422</v>
+      </c>
+      <c r="C121" t="s"/>
+      <c r="D121" t="n">
+        <v>0.007032729685306549</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.08036231994628906</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.08770393580198288</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="n">
+        <v>351.2672119140625</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.719779014587402</v>
+      </c>
+      <c r="C122" t="s"/>
+      <c r="D122" t="n">
+        <v>0.007355236914008856</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.07234349846839905</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0799654945731163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="n">
+        <v>353.4528198242188</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.668710470199585</v>
+      </c>
+      <c r="C123" t="s"/>
+      <c r="D123" t="n">
+        <v>0.007604753598570824</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.06559024751186371</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.07341298460960388</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="n">
+        <v>356.7127990722656</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.175233364105225</v>
+      </c>
+      <c r="C124" t="s"/>
+      <c r="D124" t="n">
+        <v>0.007799036800861359</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.07969121634960175</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.08766917884349823</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="n">
+        <v>341.8462829589844</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.526494026184082</v>
+      </c>
+      <c r="C125" t="s"/>
+      <c r="D125" t="n">
+        <v>0.009439805522561073</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.08200941979885101</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.09020848572254181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="n">
+        <v>347.7009887695312</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.160746097564697</v>
+      </c>
+      <c r="C126" t="s"/>
+      <c r="D126" t="n">
+        <v>0.00927163939923048</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.04799450188875198</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.05671975016593933</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="n">
+        <v>349.8174743652344</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.83959174156189</v>
+      </c>
+      <c r="C127" t="s"/>
+      <c r="D127" t="n">
+        <v>0.01328560151159763</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.06611045449972153</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.07907259464263916</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="n">
+        <v>347.9681091308594</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.972193479537964</v>
+      </c>
+      <c r="C128" t="s"/>
+      <c r="D128" t="n">
+        <v>0.01301592029631138</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.08017338067293167</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.09232908487319946</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="n">
+        <v>353.3527526855469</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.431718349456787</v>
+      </c>
+      <c r="C129" t="s"/>
+      <c r="D129" t="n">
+        <v>0.01647206582129002</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.07998332381248474</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0958973616361618</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="n">
+        <v>358.0398559570312</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.264471054077148</v>
+      </c>
+      <c r="C130" t="s"/>
+      <c r="D130" t="n">
+        <v>0.01704906672239304</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.05894757062196732</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.07622389495372772</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="n">
+        <v>360.4496154785156</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.204652309417725</v>
+      </c>
+      <c r="C131" t="s"/>
+      <c r="D131" t="n">
+        <v>0.01678879000246525</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.05268334597349167</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.07009309530258179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="n">
+        <v>365.779052734375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.763978958129883</v>
+      </c>
+      <c r="C132" t="s"/>
+      <c r="D132" t="n">
+        <v>0.02584579773247242</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.08508208394050598</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.1096113622188568</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="n">
+        <v>363.3187561035156</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.76374626159668</v>
+      </c>
+      <c r="C133" t="s"/>
+      <c r="D133" t="n">
+        <v>0.01963797956705093</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.0643874779343605</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.08440466225147247</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="n">
+        <v>360.9692077636719</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.875420093536377</v>
+      </c>
+      <c r="C134" t="s"/>
+      <c r="D134" t="n">
+        <v>0.02040474861860275</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.07148095220327377</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0918615460395813</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="n">
+        <v>359.5064086914062</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.993893623352051</v>
+      </c>
+      <c r="C135" t="s"/>
+      <c r="D135" t="n">
+        <v>0.01852379366755486</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.08653092384338379</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1042654737830162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="n">
+        <v>374.2421569824219</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.356799125671387</v>
+      </c>
+      <c r="C136" t="s"/>
+      <c r="D136" t="n">
+        <v>0.03245766088366508</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1044343709945679</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1369798183441162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="n">
+        <v>371.0075073242188</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.549386024475098</v>
+      </c>
+      <c r="C137" t="s"/>
+      <c r="D137" t="n">
+        <v>0.03787007927894592</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1041923016309738</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.1422090381383896</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="n">
+        <v>367.9956359863281</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.708351135253906</v>
+      </c>
+      <c r="C138" t="s"/>
+      <c r="D138" t="n">
+        <v>0.04241672158241272</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1041286885738373</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.1466821283102036</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="n">
+        <v>369.3649291992188</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6.295566558837891</v>
+      </c>
+      <c r="C139" t="s"/>
+      <c r="D139" t="n">
+        <v>0.02756167203187943</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.08970560133457184</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1173434853553772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="n">
+        <v>366.476806640625</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6.463057994842529</v>
+      </c>
+      <c r="C140" t="s"/>
+      <c r="D140" t="n">
+        <v>0.03200194612145424</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.08966042846441269</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1218324452638626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="n">
+        <v>363.2056884765625</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.563029289245605</v>
+      </c>
+      <c r="C141" t="s"/>
+      <c r="D141" t="n">
+        <v>0.03524349257349968</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.08963014185428619</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1251364350318909</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="n">
+        <v>363.1738891601562</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.62432861328125</v>
+      </c>
+      <c r="C142" t="s"/>
+      <c r="D142" t="n">
+        <v>0.02280109561979771</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0898013710975647</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1125719845294952</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="n">
+        <v>360.0935974121094</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.743544101715088</v>
+      </c>
+      <c r="C143" t="s"/>
+      <c r="D143" t="n">
+        <v>0.02659465558826923</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.08999405801296234</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.1166784167289734</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="n">
+        <v>356.8751525878906</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.82399845123291</v>
+      </c>
+      <c r="C144" t="s"/>
+      <c r="D144" t="n">
+        <v>0.02917186170816422</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.08974157273769379</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1191728711128235</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="n">
+        <v>355.3864135742188</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.051844596862793</v>
+      </c>
+      <c r="C145" t="s"/>
+      <c r="D145" t="n">
+        <v>0.0190347284078598</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.0932449996471405</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1120922416448593</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="n">
+        <v>353.49072265625</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.151285171508789</v>
+      </c>
+      <c r="C146" t="s"/>
+      <c r="D146" t="n">
+        <v>0.02167863585054874</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.09336894005537033</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.1149769723415375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="n">
+        <v>350.5487670898438</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.175725936889648</v>
+      </c>
+      <c r="C147" t="s"/>
+      <c r="D147" t="n">
+        <v>0.02327185869216919</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.09305138885974884</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1164185702800751</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="n">
+        <v>351.1232299804688</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.225119590759277</v>
+      </c>
+      <c r="C148" t="s"/>
+      <c r="D148" t="n">
+        <v>0.01426688954234123</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.07941080629825592</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.09364672750234604</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="n">
+        <v>348.5989074707031</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.247682571411133</v>
+      </c>
+      <c r="C149" t="s"/>
+      <c r="D149" t="n">
+        <v>0.01621566899120808</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.07959552109241486</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.09575793147087097</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="n">
+        <v>345.7598266601562</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.216616153717041</v>
+      </c>
+      <c r="C150" t="s"/>
+      <c r="D150" t="n">
+        <v>0.01687105745077133</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0797157883644104</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0965556800365448</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="n">
+        <v>350.0597839355469</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.16409969329834</v>
+      </c>
+      <c r="C151" t="s"/>
+      <c r="D151" t="n">
+        <v>0.01368452236056328</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.07978074252605438</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.09328646957874298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="n">
+        <v>347.6236877441406</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.187824726104736</v>
+      </c>
+      <c r="C152" t="s"/>
+      <c r="D152" t="n">
+        <v>0.01562265865504742</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.08009554445743561</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.09548535943031311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="n">
+        <v>345.2886352539062</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.173000812530518</v>
+      </c>
+      <c r="C153" t="s"/>
+      <c r="D153" t="n">
+        <v>0.01627131924033165</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.08024230599403381</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.09629342705011368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="n">
+        <v>347.3092346191406</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.356484413146973</v>
+      </c>
+      <c r="C154" t="s"/>
+      <c r="D154" t="n">
+        <v>0.01451332867145538</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.0932171493768692</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1074215471744537</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="n">
+        <v>345.9631042480469</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.360067844390869</v>
+      </c>
+      <c r="C155" t="s"/>
+      <c r="D155" t="n">
+        <v>0.01542110368609428</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.09323927760124207</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.108367532491684</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="n">
+        <v>343.4706420898438</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.356134414672852</v>
+      </c>
+      <c r="C156" t="s"/>
+      <c r="D156" t="n">
+        <v>0.01624543964862823</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.09337275475263596</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1094698458909988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="n">
+        <v>347.978759765625</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.101603507995605</v>
+      </c>
+      <c r="C157" t="s"/>
+      <c r="D157" t="n">
+        <v>0.01337995193898678</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.08254504203796387</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.09568551182746887</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="n">
+        <v>346.1069946289062</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.107672691345215</v>
+      </c>
+      <c r="C158" t="s"/>
+      <c r="D158" t="n">
+        <v>0.0146904643625021</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0826803594827652</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.09707434475421906</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="n">
+        <v>343.7145385742188</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.078136444091797</v>
+      </c>
+      <c r="C159" t="s"/>
+      <c r="D159" t="n">
+        <v>0.01509222388267517</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.08285471051931381</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.09763745963573456</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="n">
+        <v>366.593994140625</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.82786750793457</v>
+      </c>
+      <c r="C160" t="s"/>
+      <c r="D160" t="n">
+        <v>0.01785237342119217</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.06390485167503357</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.08184006065130234</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="n">
+        <v>363.2188415527344</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.75220251083374</v>
+      </c>
+      <c r="C161" t="s"/>
+      <c r="D161" t="n">
+        <v>0.01563419587910175</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.07067510485649109</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.08647024631500244</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="n">
+        <v>359.5876159667969</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.884955406188965</v>
+      </c>
+      <c r="C162" t="s"/>
+      <c r="D162" t="n">
+        <v>0.01454536616802216</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.08690652251243591</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1011889800429344</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="n">
+        <v>351.3594360351562</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.674247980117798</v>
+      </c>
+      <c r="C163" t="s"/>
+      <c r="D163" t="n">
+        <v>0.009443200193345547</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.06582389026880264</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0755346491932869</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="n">
+        <v>348.02587890625</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.803689002990723</v>
+      </c>
+      <c r="C164" t="s"/>
+      <c r="D164" t="n">
+        <v>0.008706354536116123</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.08059912919998169</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.08909658342599869</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="n">
+        <v>351.2452087402344</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.196626901626587</v>
+      </c>
+      <c r="C165" t="s"/>
+      <c r="D165" t="n">
+        <v>0.009102486073970795</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.04835771769285202</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.05776958167552948</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="n">
+        <v>342.5044555664062</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.4595627784729</v>
+      </c>
+      <c r="C166" t="s"/>
+      <c r="D166" t="n">
+        <v>0.007196582853794098</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.08002747595310211</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.08710110932588577</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="n">
+        <v>355.0464172363281</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.365688323974609</v>
+      </c>
+      <c r="C167" t="s"/>
+      <c r="D167" t="n">
+        <v>0.01303275488317013</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.07946948707103729</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.09241622686386108</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="n">
+        <v>361.0985412597656</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.228724002838135</v>
+      </c>
+      <c r="C168" t="s"/>
+      <c r="D168" t="n">
+        <v>0.01474742405116558</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.05856555700302124</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0734376460313797</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="n">
+        <v>362.9095153808594</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.185746192932129</v>
+      </c>
+      <c r="C169" t="s"/>
+      <c r="D169" t="n">
+        <v>0.01523566246032715</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.05265005677938461</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.06791847944259644</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="n">
+        <v>367.1780700683594</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.569273948669434</v>
+      </c>
+      <c r="C170" t="s"/>
+      <c r="D170" t="n">
+        <v>0.01988111063838005</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.08517321199178696</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1050410643219948</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="n">
+        <v>368.0850830078125</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.583601474761963</v>
+      </c>
+      <c r="C171" t="s"/>
+      <c r="D171" t="n">
+        <v>0.008962289430201054</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.07167422026395798</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.08078641444444656</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="n">
+        <v>370.7788391113281</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.534895420074463</v>
+      </c>
+      <c r="C172" t="s"/>
+      <c r="D172" t="n">
+        <v>0.009524263441562653</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.06458508223295212</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.07411331683397293</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="n">
+        <v>363.0546264648438</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.735728740692139</v>
+      </c>
+      <c r="C173" t="s"/>
+      <c r="D173" t="n">
+        <v>0.008970586583018303</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.08740687370300293</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.09627969563007355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="n">
+        <v>379.6803588867188</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.48070240020752</v>
+      </c>
+      <c r="C174" t="s"/>
+      <c r="D174" t="n">
+        <v>0.01232047937810421</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.04763267934322357</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.05847028642892838</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="n">
+        <v>354.0374755859375</v>
+      </c>
+      <c r="B175" t="n">
+        <v>3.140812635421753</v>
+      </c>
+      <c r="C175" t="s"/>
+      <c r="D175" t="n">
+        <v>0.006268627010285854</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.04759246110916138</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.05406126007437706</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="n">
+        <v>351.7180786132812</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.19101095199585</v>
+      </c>
+      <c r="C176" t="s"/>
+      <c r="D176" t="n">
+        <v>0.006086765788495541</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.05339055135846138</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.05986972898244858</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="n">
+        <v>349.0900573730469</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.199119567871094</v>
+      </c>
+      <c r="C177" t="s"/>
+      <c r="D177" t="n">
+        <v>0.005536922253668308</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.05871323496103287</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.06478859484195709</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="n">
+        <v>347.1604919433594</v>
+      </c>
+      <c r="B178" t="n">
+        <v>3.280510425567627</v>
+      </c>
+      <c r="C178" t="s"/>
+      <c r="D178" t="n">
+        <v>0.005705529823899269</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.06554409861564636</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.0717022567987442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="n">
+        <v>345.2866516113281</v>
+      </c>
+      <c r="B179" t="n">
+        <v>3.36992335319519</v>
+      </c>
+      <c r="C179" t="s"/>
+      <c r="D179" t="n">
+        <v>0.005915158428251743</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.07313664257526398</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.07932117581367493</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="n">
+        <v>342.7976379394531</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.418828010559082</v>
+      </c>
+      <c r="C180" t="s"/>
+      <c r="D180" t="n">
+        <v>0.005972038023173809</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.0804445743560791</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.08641310036182404</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="n">
+        <v>359.86865234375</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.13609504699707</v>
+      </c>
+      <c r="C181" t="s"/>
+      <c r="D181" t="n">
+        <v>0.007739037740975618</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.07223882526159286</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.08020943403244019</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="n">
+        <v>362.2291870117188</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.052475452423096</v>
+      </c>
+      <c r="C182" t="s"/>
+      <c r="D182" t="n">
+        <v>0.007648570463061333</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.06460627168416977</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.07253505289554596</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="n">
+        <v>365.4017639160156</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.070322513580322</v>
+      </c>
+      <c r="C183" t="s"/>
+      <c r="D183" t="n">
+        <v>0.008872715756297112</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.05842199176549911</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.06729992479085922</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="n">
+        <v>367.6972045898438</v>
+      </c>
+      <c r="B184" t="n">
+        <v>3.935332775115967</v>
+      </c>
+      <c r="C184" t="s"/>
+      <c r="D184" t="n">
+        <v>0.007907616905868053</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.05246832221746445</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.06012263149023056</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="n">
+        <v>370.0433044433594</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.957184791564941</v>
+      </c>
+      <c r="C185" t="s"/>
+      <c r="D185" t="n">
+        <v>0.009544776752591133</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.04704377427697182</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.05593393743038177</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="n">
+        <v>371.6576232910156</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.10694694519043</v>
+      </c>
+      <c r="C186" t="s"/>
+      <c r="D186" t="n">
+        <v>0.008004415780305862</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.08488411456346512</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.09301856905221939</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="n">
+        <v>374.642822265625</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.069189071655273</v>
+      </c>
+      <c r="C187" t="s"/>
+      <c r="D187" t="n">
+        <v>0.008769351989030838</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.07702428102493286</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.08594134449958801</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="n">
+        <v>349.7440490722656</v>
+      </c>
+      <c r="B188" t="n">
+        <v>3.831154108047485</v>
+      </c>
+      <c r="C188" t="s"/>
+      <c r="D188" t="n">
+        <v>0.007512607611715794</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.08042972534894943</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.087930828332901</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="n">
+        <v>351.8318481445312</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.737521648406982</v>
+      </c>
+      <c r="C189" t="s"/>
+      <c r="D189" t="n">
+        <v>0.007389765698462725</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0720938965678215</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.07972358912229538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="n">
+        <v>354.1387634277344</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.678112506866455</v>
+      </c>
+      <c r="C190" t="s"/>
+      <c r="D190" t="n">
+        <v>0.007364360615611076</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.06519928574562073</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.07291427999734879</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="n">
+        <v>357.2328491210938</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.21101713180542</v>
+      </c>
+      <c r="C191" t="s"/>
+      <c r="D191" t="n">
+        <v>0.007949911057949066</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.07986990362405777</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.08786894381046295</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="n">
+        <v>340.6817016601562</v>
+      </c>
+      <c r="B192" t="n">
+        <v>3.469397306442261</v>
+      </c>
+      <c r="C192" t="s"/>
+      <c r="D192" t="n">
+        <v>0.008948773145675659</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.08133329451084137</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.08992551267147064</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="n">
+        <v>348.2743225097656</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3.128174304962158</v>
+      </c>
+      <c r="C193" t="s"/>
+      <c r="D193" t="n">
+        <v>0.009897691197693348</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.04867967590689659</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.0589936375617981</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="n">
+        <v>350.1359558105469</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.804278135299683</v>
+      </c>
+      <c r="C194" t="s"/>
+      <c r="D194" t="n">
+        <v>0.01284932531416416</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.06582976877689362</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.07886438071727753</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="n">
+        <v>347.3752136230469</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.963819026947021</v>
+      </c>
+      <c r="C195" t="s"/>
+      <c r="D195" t="n">
+        <v>0.01246598176658154</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.0798126757144928</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.09203650057315826</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="n">
+        <v>353.0396423339844</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.447794914245605</v>
+      </c>
+      <c r="C196" t="s"/>
+      <c r="D196" t="n">
+        <v>0.01589944772422314</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.07973914593458176</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.09549587219953537</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="n">
+        <v>358.1049194335938</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.27556324005127</v>
+      </c>
+      <c r="C197" t="s"/>
+      <c r="D197" t="n">
+        <v>0.01712643913924694</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.05884553492069244</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.07621318101882935</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="n">
+        <v>360.4573974609375</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.248772144317627</v>
+      </c>
+      <c r="C198" t="s"/>
+      <c r="D198" t="n">
+        <v>0.01758489198982716</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.05298461392521858</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.07074218988418579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="n">
+        <v>364.5735778808594</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.771435260772705</v>
+      </c>
+      <c r="C199" t="s"/>
+      <c r="D199" t="n">
+        <v>0.02492229454219341</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.08455327898263931</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1095409393310547</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="n">
+        <v>363.126708984375</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.789095878601074</v>
+      </c>
+      <c r="C200" t="s"/>
+      <c r="D200" t="n">
+        <v>0.01952457800507545</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.06396482884883881</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.08366721868515015</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="n">
+        <v>360.7533264160156</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.885348796844482</v>
+      </c>
+      <c r="C201" t="s"/>
+      <c r="D201" t="n">
+        <v>0.0199256706982851</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.07098134607076645</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.09104591608047485</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="n">
+        <v>358.9833374023438</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.051061630249023</v>
+      </c>
+      <c r="C202" t="s"/>
+      <c r="D202" t="n">
+        <v>0.01814942620694637</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.0867091566324234</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1046574413776398</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="n">
+        <v>374.0708618164062</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7.246672630310059</v>
+      </c>
+      <c r="C203" t="s"/>
+      <c r="D203" t="n">
+        <v>0.03405134007334709</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.1061591580510139</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.140283927321434</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="n">
+        <v>371.5228271484375</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7.443645477294922</v>
+      </c>
+      <c r="C204" t="s"/>
+      <c r="D204" t="n">
+        <v>0.03843290731310844</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1051370948553085</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1437767595052719</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="n">
+        <v>368.4002075195312</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7.641552925109863</v>
+      </c>
+      <c r="C205" t="s"/>
+      <c r="D205" t="n">
+        <v>0.04278156533837318</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1035753637552261</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.1463334560394287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="n">
+        <v>369.2100219726562</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6.257048606872559</v>
+      </c>
+      <c r="C206" t="s"/>
+      <c r="D206" t="n">
+        <v>0.02827181667089462</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.0909418910741806</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1193948537111282</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="n">
+        <v>366.6620483398438</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.43766975402832</v>
+      </c>
+      <c r="C207" t="s"/>
+      <c r="D207" t="n">
+        <v>0.03227369859814644</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.09037238359451294</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1227942407131195</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="n">
+        <v>363.193115234375</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6.573548316955566</v>
+      </c>
+      <c r="C208" t="s"/>
+      <c r="D208" t="n">
+        <v>0.03581352904438972</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.08936674892902374</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1249417215585709</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="n">
+        <v>362.417724609375</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.575405120849609</v>
+      </c>
+      <c r="C209" t="s"/>
+      <c r="D209" t="n">
+        <v>0.02315168827772141</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.09057176858186722</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.1137951612472534</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="n">
+        <v>359.7538452148438</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.705803871154785</v>
+      </c>
+      <c r="C210" t="s"/>
+      <c r="D210" t="n">
+        <v>0.02658388763666153</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.09043766558170319</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.1170476377010345</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="n">
+        <v>356.7857055664062</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.820777416229248</v>
+      </c>
+      <c r="C211" t="s"/>
+      <c r="D211" t="n">
+        <v>0.02955703064799309</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.08964191377162933</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1189028918743134</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="n">
+        <v>354.8871459960938</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.992301464080811</v>
+      </c>
+      <c r="C212" t="s"/>
+      <c r="D212" t="n">
+        <v>0.01888943836092949</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.09355573356151581</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.1123966351151466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="n">
+        <v>353.4393615722656</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.091243743896484</v>
+      </c>
+      <c r="C213" t="s"/>
+      <c r="D213" t="n">
+        <v>0.0212720725685358</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.09366166591644287</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1148475706577301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="n">
+        <v>350.7958984375</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.129415512084961</v>
+      </c>
+      <c r="C214" t="s"/>
+      <c r="D214" t="n">
+        <v>0.02316681295633316</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.09314921498298645</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1159453839063644</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="n">
+        <v>350.6970825195312</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.222646236419678</v>
+      </c>
+      <c r="C215" t="s"/>
+      <c r="D215" t="n">
+        <v>0.01442239433526993</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.07971940934658051</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.09416484832763672</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="n">
+        <v>348.3701782226562</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.260832786560059</v>
+      </c>
+      <c r="C216" t="s"/>
+      <c r="D216" t="n">
+        <v>0.01647112891077995</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.07974647730588913</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.09614640474319458</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="n">
+        <v>345.076416015625</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.238354682922363</v>
+      </c>
+      <c r="C217" t="s"/>
+      <c r="D217" t="n">
+        <v>0.01781979948282242</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.07962048053741455</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.09690527617931366</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="n">
+        <v>350.2623596191406</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.173114776611328</v>
+      </c>
+      <c r="C218" t="s"/>
+      <c r="D218" t="n">
+        <v>0.01354734972119331</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.07986010611057281</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.09357069432735443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="n">
+        <v>347.841064453125</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.20191764831543</v>
+      </c>
+      <c r="C219" t="s"/>
+      <c r="D219" t="n">
+        <v>0.01573017798364162</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.08024881780147552</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.09606311470270157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="n">
+        <v>344.97607421875</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.180229187011719</v>
+      </c>
+      <c r="C220" t="s"/>
+      <c r="D220" t="n">
+        <v>0.01698084734380245</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.08034899830818176</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.09699620306491852</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="n">
+        <v>347.6015014648438</v>
+      </c>
+      <c r="B221" t="n">
+        <v>4.319653511047363</v>
+      </c>
+      <c r="C221" t="s"/>
+      <c r="D221" t="n">
+        <v>0.01408610679209232</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.09317271411418915</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.1070698276162148</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="n">
+        <v>346.5695190429688</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4.322899341583252</v>
+      </c>
+      <c r="C222" t="s"/>
+      <c r="D222" t="n">
+        <v>0.01488633640110493</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.09326177835464478</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.1079400777816772</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="n">
+        <v>344.2008056640625</v>
+      </c>
+      <c r="B223" t="n">
+        <v>4.308749675750732</v>
+      </c>
+      <c r="C223" t="s"/>
+      <c r="D223" t="n">
+        <v>0.01601406559348106</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.09350906312465668</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.1089783981442451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="n">
+        <v>348.0947875976562</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.114382266998291</v>
+      </c>
+      <c r="C224" t="s"/>
+      <c r="D224" t="n">
+        <v>0.0132853165268898</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.08253083378076553</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.09587813913822174</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="n">
+        <v>346.297607421875</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.135085105895996</v>
+      </c>
+      <c r="C225" t="s"/>
+      <c r="D225" t="n">
+        <v>0.01485529914498329</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.0826861709356308</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.09755434095859528</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="n">
+        <v>343.4581909179688</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.110472202301025</v>
+      </c>
+      <c r="C226" t="s"/>
+      <c r="D226" t="n">
+        <v>0.01604833826422691</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.08286164700984955</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.09854714572429657</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="n">
+        <v>367.2449645996094</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.851882934570312</v>
+      </c>
+      <c r="C227" t="s"/>
+      <c r="D227" t="n">
+        <v>0.01768026128411293</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.06416133046150208</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.08201561868190765</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="n">
+        <v>364.9469909667969</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.777686595916748</v>
+      </c>
+      <c r="C228" t="s"/>
+      <c r="D228" t="n">
+        <v>0.01559671945869923</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.07114823162555695</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.08703486621379852</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="n">
+        <v>359.8343505859375</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.870513916015625</v>
+      </c>
+      <c r="C229" t="s"/>
+      <c r="D229" t="n">
+        <v>0.01450612768530846</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.08682210743427277</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1012812107801437</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="n">
+        <v>352.4105529785156</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3.672473907470703</v>
+      </c>
+      <c r="C230" t="s"/>
+      <c r="D230" t="n">
+        <v>0.009383152239024639</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.06627357006072998</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.07591947913169861</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="n">
+        <v>348.5176696777344</v>
+      </c>
+      <c r="B231" t="n">
+        <v>3.801201820373535</v>
+      </c>
+      <c r="C231" t="s"/>
+      <c r="D231" t="n">
+        <v>0.008465702645480633</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.08018127083778381</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.08872004598379135</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="n">
+        <v>351.0344543457031</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.192637920379639</v>
+      </c>
+      <c r="C232" t="s"/>
+      <c r="D232" t="n">
+        <v>0.009214161895215511</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.04868276789784431</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.05750969052314758</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="n">
+        <v>343.1488952636719</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.501948118209839</v>
+      </c>
+      <c r="C233" t="s"/>
+      <c r="D233" t="n">
+        <v>0.007121173664927483</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.07954886555671692</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.08654525876045227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="n">
+        <v>354.6795959472656</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.359237194061279</v>
+      </c>
+      <c r="C234" t="s"/>
+      <c r="D234" t="n">
+        <v>0.01277345977723598</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.07943159341812134</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.09219787269830704</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="n">
+        <v>361.21875</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.236242294311523</v>
+      </c>
+      <c r="C235" t="s"/>
+      <c r="D235" t="n">
+        <v>0.01461635902523994</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.0586894266307354</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.07334911823272705</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="n">
+        <v>363.2283630371094</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.192912578582764</v>
+      </c>
+      <c r="C236" t="s"/>
+      <c r="D236" t="n">
+        <v>0.01484398357570171</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.05234828963875771</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.06711173057556152</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="n">
+        <v>367.4273071289062</v>
+      </c>
+      <c r="B237" t="n">
+        <v>5.560506343841553</v>
+      </c>
+      <c r="C237" t="s"/>
+      <c r="D237" t="n">
+        <v>0.01974009908735752</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.08582716435194016</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1055136024951935</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="n">
+        <v>368.1528930664062</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.579164981842041</v>
+      </c>
+      <c r="C238" t="s"/>
+      <c r="D238" t="n">
+        <v>0.009432192891836166</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.07170358300209045</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.08074884861707687</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="n">
+        <v>371.2133483886719</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.534310340881348</v>
+      </c>
+      <c r="C239" t="s"/>
+      <c r="D239" t="n">
+        <v>0.009681961499154568</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.06469989567995071</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.07415787130594254</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="n">
+        <v>361.6768493652344</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.700610637664795</v>
+      </c>
+      <c r="C240" t="s"/>
+      <c r="D240" t="n">
+        <v>0.009837877005338669</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.08667470514774323</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.09577251970767975</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="n">
+        <v>379.1903991699219</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.460824489593506</v>
+      </c>
+      <c r="C241" t="s"/>
+      <c r="D241" t="n">
+        <v>0.011569251306355</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.04656360670924187</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.05815465003252029</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="n">
+        <v>354.3898315429688</v>
+      </c>
+      <c r="B242" t="n">
+        <v>3.116320133209229</v>
+      </c>
+      <c r="C242" t="s"/>
+      <c r="D242" t="n">
+        <v>0.006070867646485567</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.04838547483086586</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.0543312281370163</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="n">
+        <v>352.0949096679688</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.183006286621094</v>
+      </c>
+      <c r="C243" t="s"/>
+      <c r="D243" t="n">
+        <v>0.006204222328960896</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.05437286570668221</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.06053856387734413</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="n">
+        <v>349.9138793945312</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.205517292022705</v>
+      </c>
+      <c r="C244" t="s"/>
+      <c r="D244" t="n">
+        <v>0.005657000932842493</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.05959265679121017</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.06529403477907181</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="n">
+        <v>347.7641906738281</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.296360731124878</v>
+      </c>
+      <c r="C245" t="s"/>
+      <c r="D245" t="n">
+        <v>0.005961588583886623</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.06617720425128937</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.0721578449010849</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="n">
+        <v>345.6741333007812</v>
+      </c>
+      <c r="B246" t="n">
+        <v>3.391782760620117</v>
+      </c>
+      <c r="C246" t="s"/>
+      <c r="D246" t="n">
+        <v>0.006286332383751869</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.07339674234390259</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.07961450517177582</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="n">
+        <v>343.3968505859375</v>
+      </c>
+      <c r="B247" t="n">
+        <v>3.449844360351562</v>
+      </c>
+      <c r="C247" t="s"/>
+      <c r="D247" t="n">
+        <v>0.006106007844209671</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.07999685406684875</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.0859113335609436</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="n">
+        <v>359.6769104003906</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.117890357971191</v>
+      </c>
+      <c r="C248" t="s"/>
+      <c r="D248" t="n">
+        <v>0.008038853295147419</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.07223273813724518</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.08003883063793182</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="n">
+        <v>362.7621154785156</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.038499355316162</v>
+      </c>
+      <c r="C249" t="s"/>
+      <c r="D249" t="n">
+        <v>0.007604173384606838</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.06476244330406189</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.07223954051733017</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="n">
+        <v>365.6014099121094</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.047545909881592</v>
+      </c>
+      <c r="C250" t="s"/>
+      <c r="D250" t="n">
+        <v>0.008659358136355877</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.05869783461093903</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.06730427592992783</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="n">
+        <v>368.2723693847656</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.911236047744751</v>
+      </c>
+      <c r="C251" t="s"/>
+      <c r="D251" t="n">
+        <v>0.007650265004485846</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.05244375020265579</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.06007179990410805</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="n">
+        <v>370.4830017089844</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.922249794006348</v>
+      </c>
+      <c r="C252" t="s"/>
+      <c r="D252" t="n">
+        <v>0.008600983768701553</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.04661316052079201</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.05519906058907509</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="n">
+        <v>371.6849975585938</v>
+      </c>
+      <c r="B253" t="n">
+        <v>5.125832557678223</v>
+      </c>
+      <c r="C253" t="s"/>
+      <c r="D253" t="n">
+        <v>0.009629733860492706</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.08448845148086548</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.09301667660474777</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="n">
+        <v>375.2261352539062</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5.104012489318848</v>
+      </c>
+      <c r="C254" t="s"/>
+      <c r="D254" t="n">
+        <v>0.01020760275423527</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.07711736857891083</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.08653084933757782</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="n">
+        <v>349.4336242675781</v>
+      </c>
+      <c r="B255" t="n">
+        <v>3.822149753570557</v>
+      </c>
+      <c r="C255" t="s"/>
+      <c r="D255" t="n">
+        <v>0.007532250136137009</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.07993222773075104</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.08722463995218277</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="n">
+        <v>351.8091125488281</v>
+      </c>
+      <c r="B256" t="n">
+        <v>3.730738162994385</v>
+      </c>
+      <c r="C256" t="s"/>
+      <c r="D256" t="n">
+        <v>0.00741132628172636</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.07219337671995163</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.07951051741838455</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="n">
+        <v>354.3682861328125</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.668445110321045</v>
+      </c>
+      <c r="C257" t="s"/>
+      <c r="D257" t="n">
+        <v>0.007333990186452866</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.06565357744693756</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.07296770066022873</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="n">
+        <v>356.6639404296875</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.185314178466797</v>
+      </c>
+      <c r="C258" t="s"/>
+      <c r="D258" t="n">
+        <v>0.008065199479460716</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.07926893979310989</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.08694556355476379</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="n">
+        <v>341.5850830078125</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.523524045944214</v>
+      </c>
+      <c r="C259" t="s"/>
+      <c r="D259" t="n">
+        <v>0.009049348533153534</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.08110971003770828</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.090166375041008</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="n">
+        <v>347.5704650878906</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.127822637557983</v>
+      </c>
+      <c r="C260" t="s"/>
+      <c r="D260" t="n">
+        <v>0.01028398238122463</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.04860347136855125</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.05813854932785034</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="n">
+        <v>350.2554626464844</v>
+      </c>
+      <c r="B261" t="n">
+        <v>3.837255716323853</v>
+      </c>
+      <c r="C261" t="s"/>
+      <c r="D261" t="n">
+        <v>0.01310481876134872</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.06607621908187866</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.07924553751945496</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="n">
+        <v>347.6098327636719</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.992921352386475</v>
+      </c>
+      <c r="C262" t="s"/>
+      <c r="D262" t="n">
+        <v>0.01236607320606709</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.07971152663230896</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.09218907356262207</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="n">
+        <v>353.1100158691406</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.463307857513428</v>
+      </c>
+      <c r="C263" t="s"/>
+      <c r="D263" t="n">
+        <v>0.01571152172982693</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.07982289791107178</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.09570573270320892</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="n">
+        <v>358.5219421386719</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4.308523654937744</v>
+      </c>
+      <c r="C264" t="s"/>
+      <c r="D264" t="n">
+        <v>0.01707210764288902</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.05863513052463531</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.07565736770629883</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="n">
+        <v>360.5048828125</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.267287254333496</v>
+      </c>
+      <c r="C265" t="s"/>
+      <c r="D265" t="n">
+        <v>0.01735693402588367</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.05230152979493141</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.06930474936962128</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="n">
+        <v>365.7472839355469</v>
+      </c>
+      <c r="B266" t="n">
+        <v>5.789211273193359</v>
+      </c>
+      <c r="C266" t="s"/>
+      <c r="D266" t="n">
+        <v>0.02461173385381699</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.08538083732128143</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1102756410837173</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="n">
+        <v>363.9389953613281</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.827460289001465</v>
+      </c>
+      <c r="C267" t="s"/>
+      <c r="D267" t="n">
+        <v>0.01937092281877995</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0.06405501812696457</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.08358963578939438</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="n">
+        <v>361.4905090332031</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.920892238616943</v>
+      </c>
+      <c r="C268" t="s"/>
+      <c r="D268" t="n">
+        <v>0.01980574242770672</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.0712757408618927</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.091330885887146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="n">
+        <v>358.742919921875</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5.035340309143066</v>
+      </c>
+      <c r="C269" t="s"/>
+      <c r="D269" t="n">
+        <v>0.01776617579162121</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.08683430403470993</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.1046309918165207</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="n">
+        <v>374.8198547363281</v>
+      </c>
+      <c r="B270" t="n">
+        <v>7.400527000427246</v>
+      </c>
+      <c r="C270" t="s"/>
+      <c r="D270" t="n">
+        <v>0.03352989628911018</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0.1044986397027969</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.138112798333168</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="n">
+        <v>372.2822265625</v>
+      </c>
+      <c r="B271" t="n">
+        <v>7.534354209899902</v>
+      </c>
+      <c r="C271" t="s"/>
+      <c r="D271" t="n">
+        <v>0.03724927455186844</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0.1047008037567139</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1420543491840363</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="n">
+        <v>369.6720886230469</v>
+      </c>
+      <c r="B272" t="n">
+        <v>7.687188148498535</v>
+      </c>
+      <c r="C272" t="s"/>
+      <c r="D272" t="n">
+        <v>0.04146278277039528</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0.1050867214798927</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.1466423571109772</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="n">
+        <v>369.5204467773438</v>
+      </c>
+      <c r="B273" t="n">
+        <v>6.332474708557129</v>
+      </c>
+      <c r="C273" t="s"/>
+      <c r="D273" t="n">
+        <v>0.02745259739458561</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.08986343443393707</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1173644363880157</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="n">
+        <v>367.0278625488281</v>
+      </c>
+      <c r="B274" t="n">
+        <v>6.469643592834473</v>
+      </c>
+      <c r="C274" t="s"/>
+      <c r="D274" t="n">
+        <v>0.03115755319595337</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.09011296927928925</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1213402599096298</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275" t="n">
+        <v>364.0162353515625</v>
+      </c>
+      <c r="B275" t="n">
+        <v>6.585786819458008</v>
+      </c>
+      <c r="C275" t="s"/>
+      <c r="D275" t="n">
+        <v>0.03504472598433495</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.09054701030254364</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1256565749645233</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" t="n">
+        <v>362.4660034179688</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5.674785614013672</v>
+      </c>
+      <c r="C276" t="s"/>
+      <c r="D276" t="n">
+        <v>0.02286490984261036</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.08933261781930923</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.1122485399246216</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277" t="n">
+        <v>359.8058776855469</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5.762567520141602</v>
+      </c>
+      <c r="C277" t="s"/>
+      <c r="D277" t="n">
+        <v>0.02614080719649792</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0.08979261666536331</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.115965723991394</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278" t="n">
+        <v>357.199951171875</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5.830899238586426</v>
+      </c>
+      <c r="C278" t="s"/>
+      <c r="D278" t="n">
+        <v>0.02943806350231171</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.09028269350528717</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1196867823600769</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" t="n">
+        <v>354.583740234375</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5.079073429107666</v>
+      </c>
+      <c r="C279" t="s"/>
+      <c r="D279" t="n">
+        <v>0.01858541183173656</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0.09260647743940353</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1112019866704941</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280" t="n">
+        <v>353.1220092773438</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5.156087875366211</v>
+      </c>
+      <c r="C280" t="s"/>
+      <c r="D280" t="n">
+        <v>0.02103628404438496</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.0930013582110405</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.11399956792593</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281" t="n">
+        <v>350.839599609375</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5.152812004089355</v>
+      </c>
+      <c r="C281" t="s"/>
+      <c r="D281" t="n">
+        <v>0.02344639226794243</v>
+      </c>
+      <c r="E281" t="n">
+        <v>0.09347160160541534</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.1167524755001068</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="n">
+        <v>350.5003662109375</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.26412296295166</v>
+      </c>
+      <c r="C282" t="s"/>
+      <c r="D282" t="n">
+        <v>0.01446386426687241</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.0788770318031311</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.09339223802089691</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="n">
+        <v>348.1254577636719</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.288715839385986</v>
+      </c>
+      <c r="C283" t="s"/>
+      <c r="D283" t="n">
+        <v>0.01688197441399097</v>
+      </c>
+      <c r="E283" t="n">
+        <v>0.07914741337299347</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.09603045880794525</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="n">
+        <v>345.3528442382812</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4.278500080108643</v>
+      </c>
+      <c r="C284" t="s"/>
+      <c r="D284" t="n">
+        <v>0.01944621093571186</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.07976562529802322</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.09909041225910187</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285" t="n">
+        <v>349.8018493652344</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4.152795791625977</v>
+      </c>
+      <c r="C285" t="s"/>
+      <c r="D285" t="n">
+        <v>0.013245003297925</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.07944297045469284</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.0927228182554245</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286" t="n">
+        <v>347.3557434082031</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.196424961090088</v>
+      </c>
+      <c r="C286" t="s"/>
+      <c r="D286" t="n">
+        <v>0.0158898588269949</v>
+      </c>
+      <c r="E286" t="n">
+        <v>0.07987780123949051</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.09575484693050385</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" t="n">
+        <v>344.9895935058594</v>
+      </c>
+      <c r="B287" t="n">
+        <v>4.208699703216553</v>
+      </c>
+      <c r="C287" t="s"/>
+      <c r="D287" t="n">
+        <v>0.01835697330534458</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.08050982654094696</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.09874682128429413</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288" t="n">
+        <v>347.1383666992188</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.362892150878906</v>
+      </c>
+      <c r="C288" t="s"/>
+      <c r="D288" t="n">
+        <v>0.01371928304433823</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.09272526204586029</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1063694655895233</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" t="n">
+        <v>346.0772399902344</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.351096153259277</v>
+      </c>
+      <c r="C289" t="s"/>
+      <c r="D289" t="n">
+        <v>0.01470953971147537</v>
+      </c>
+      <c r="E289" t="n">
+        <v>0.09290345013141632</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.107476606965065</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290" t="n">
+        <v>344.0692138671875</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.333991050720215</v>
+      </c>
+      <c r="C290" t="s"/>
+      <c r="D290" t="n">
+        <v>0.01689378172159195</v>
+      </c>
+      <c r="E290" t="n">
+        <v>0.09368866682052612</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.1102723926305771</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291" t="n">
+        <v>347.8191528320312</v>
+      </c>
+      <c r="B291" t="n">
+        <v>4.088649749755859</v>
+      </c>
+      <c r="C291" t="s"/>
+      <c r="D291" t="n">
+        <v>0.01300796307623386</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.08218695223331451</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.09517461806535721</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" t="n">
+        <v>346.0387268066406</v>
+      </c>
+      <c r="B292" t="n">
+        <v>4.096992969512939</v>
+      </c>
+      <c r="C292" t="s"/>
+      <c r="D292" t="n">
+        <v>0.01488063856959343</v>
+      </c>
+      <c r="E292" t="n">
+        <v>0.08244325220584869</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.09723260998725891</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293" t="n">
+        <v>343.6946105957031</v>
+      </c>
+      <c r="B293" t="n">
+        <v>4.080239772796631</v>
+      </c>
+      <c r="C293" t="s"/>
+      <c r="D293" t="n">
+        <v>0.01716085150837898</v>
+      </c>
+      <c r="E293" t="n">
+        <v>0.08319734036922455</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.1001170575618744</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294" t="n">
+        <v>367.046142578125</v>
+      </c>
+      <c r="B294" t="n">
+        <v>4.79450511932373</v>
+      </c>
+      <c r="C294" t="s"/>
+      <c r="D294" t="n">
+        <v>0.01716199889779091</v>
+      </c>
+      <c r="E294" t="n">
+        <v>0.06380671262741089</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.08091650158166885</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295" t="n">
+        <v>363.9758605957031</v>
+      </c>
+      <c r="B295" t="n">
+        <v>4.737992286682129</v>
+      </c>
+      <c r="C295" t="s"/>
+      <c r="D295" t="n">
+        <v>0.01490520313382149</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.07094204425811768</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.08591068536043167</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="n">
+        <v>359.3421325683594</v>
+      </c>
+      <c r="B296" t="n">
+        <v>4.877366065979004</v>
+      </c>
+      <c r="C296" t="s"/>
+      <c r="D296" t="n">
+        <v>0.01418893225491047</v>
+      </c>
+      <c r="E296" t="n">
+        <v>0.08669590950012207</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.1009416729211807</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297" t="n">
+        <v>351.4687194824219</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3.677774429321289</v>
+      </c>
+      <c r="C297" t="s"/>
+      <c r="D297" t="n">
+        <v>0.009076218120753765</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.06594876945018768</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.0752086341381073</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" t="n">
+        <v>347.96240234375</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3.765032768249512</v>
+      </c>
+      <c r="C298" t="s"/>
+      <c r="D298" t="n">
+        <v>0.007657731883227825</v>
+      </c>
+      <c r="E298" t="n">
+        <v>0.08067062497138977</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.088435098528862</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299" t="n">
+        <v>351.3502807617188</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.24850869178772</v>
+      </c>
+      <c r="C299" t="s"/>
+      <c r="D299" t="n">
+        <v>0.00984044186770916</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.04858382418751717</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.05855856463313103</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" t="n">
+        <v>343.4026184082031</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3.405482769012451</v>
+      </c>
+      <c r="C300" t="s"/>
+      <c r="D300" t="n">
+        <v>0.006528347730636597</v>
+      </c>
+      <c r="E300" t="n">
+        <v>0.08035558462142944</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.08687152713537216</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301" t="n">
+        <v>354.7466125488281</v>
+      </c>
+      <c r="B301" t="n">
+        <v>4.340193748474121</v>
+      </c>
+      <c r="C301" t="s"/>
+      <c r="D301" t="n">
+        <v>0.0128855723887682</v>
+      </c>
+      <c r="E301" t="n">
+        <v>0.07906337082386017</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.09194916486740112</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302" t="n">
+        <v>361.1029052734375</v>
+      </c>
+      <c r="B302" t="n">
+        <v>4.214924812316895</v>
+      </c>
+      <c r="C302" t="s"/>
+      <c r="D302" t="n">
+        <v>0.01437749154865742</v>
+      </c>
+      <c r="E302" t="n">
+        <v>0.05833055824041367</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.07272505015134811</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" t="n">
+        <v>363.1388549804688</v>
+      </c>
+      <c r="B303" t="n">
+        <v>4.147861480712891</v>
+      </c>
+      <c r="C303" t="s"/>
+      <c r="D303" t="n">
+        <v>0.01436468586325645</v>
+      </c>
+      <c r="E303" t="n">
+        <v>0.05249049887061119</v>
+      </c>
+      <c r="F303" t="n">
+        <v>0.06684482097625732</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" t="n">
+        <v>367.5823974609375</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5.572616577148438</v>
+      </c>
+      <c r="C304" t="s"/>
+      <c r="D304" t="n">
+        <v>0.02022652886807919</v>
+      </c>
+      <c r="E304" t="n">
+        <v>0.08488364517688751</v>
+      </c>
+      <c r="F304" t="n">
+        <v>0.1050588935613632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="n">
+        <v>368.4114990234375</v>
+      </c>
+      <c r="B305" t="n">
+        <v>4.614811897277832</v>
+      </c>
+      <c r="C305" t="s"/>
+      <c r="D305" t="n">
+        <v>0.01030193362385035</v>
+      </c>
+      <c r="E305" t="n">
+        <v>0.07178584486246109</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.08202296495437622</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="n">
+        <v>371.3768615722656</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4.543836116790771</v>
+      </c>
+      <c r="C306" t="s"/>
+      <c r="D306" t="n">
+        <v>0.01033310499042273</v>
+      </c>
+      <c r="E306" t="n">
+        <v>0.06468876451253891</v>
+      </c>
+      <c r="F306" t="n">
+        <v>0.07488946616649628</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="n">
+        <v>362.2133178710938</v>
+      </c>
+      <c r="B307" t="n">
+        <v>4.791492462158203</v>
+      </c>
+      <c r="C307" t="s"/>
+      <c r="D307" t="n">
+        <v>0.01079710200428963</v>
+      </c>
+      <c r="E307" t="n">
+        <v>0.08706462383270264</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.09788794815540314</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="n">
+        <v>378.9549255371094</v>
+      </c>
+      <c r="B308" t="n">
+        <v>4.474496364593506</v>
+      </c>
+      <c r="C308" t="s"/>
+      <c r="D308" t="n">
+        <v>0.01148015912622213</v>
+      </c>
+      <c r="E308" t="n">
+        <v>0.0465146005153656</v>
+      </c>
+      <c r="F308" t="n">
+        <v>0.05776714161038399</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="n">
+        <v>354.7673950195312</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.114601612091064</v>
+      </c>
+      <c r="C309" t="s"/>
+      <c r="D309" t="n">
+        <v>0.005941105540841818</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0.04829085618257523</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.05428608879446983</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="n">
+        <v>352.3164367675781</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3.181408166885376</v>
+      </c>
+      <c r="C310" t="s"/>
+      <c r="D310" t="n">
+        <v>0.0062209228053689</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.05403498560190201</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0.06034988909959793</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="n">
+        <v>349.8485412597656</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3.177656412124634</v>
+      </c>
+      <c r="C311" t="s"/>
+      <c r="D311" t="n">
+        <v>0.005638749804347754</v>
+      </c>
+      <c r="E311" t="n">
+        <v>0.05940506607294083</v>
+      </c>
+      <c r="F311" t="n">
+        <v>0.06517293304204941</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="n">
+        <v>347.7325134277344</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.270201921463013</v>
+      </c>
+      <c r="C312" t="s"/>
+      <c r="D312" t="n">
+        <v>0.005876476410776377</v>
+      </c>
+      <c r="E312" t="n">
+        <v>0.06610796600580215</v>
+      </c>
+      <c r="F312" t="n">
+        <v>0.07212125509977341</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="n">
+        <v>345.7259826660156</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.371908903121948</v>
+      </c>
+      <c r="C313" t="s"/>
+      <c r="D313" t="n">
+        <v>0.005991466343402863</v>
+      </c>
+      <c r="E313" t="n">
+        <v>0.07358241826295853</v>
+      </c>
+      <c r="F313" t="n">
+        <v>0.07969609647989273</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="n">
+        <v>343.5673217773438</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.388854026794434</v>
+      </c>
+      <c r="C314" t="s"/>
+      <c r="D314" t="n">
+        <v>0.005394141655415297</v>
+      </c>
+      <c r="E314" t="n">
+        <v>0.08091077208518982</v>
+      </c>
+      <c r="F314" t="n">
+        <v>0.0863591805100441</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="n">
+        <v>359.8006591796875</v>
+      </c>
+      <c r="B315" t="n">
+        <v>4.136532783508301</v>
+      </c>
+      <c r="C315" t="s"/>
+      <c r="D315" t="n">
+        <v>0.008376835845410824</v>
+      </c>
+      <c r="E315" t="n">
+        <v>0.0723787248134613</v>
+      </c>
+      <c r="F315" t="n">
+        <v>0.08079613745212555</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="n">
+        <v>362.72412109375</v>
+      </c>
+      <c r="B316" t="n">
+        <v>4.025014877319336</v>
+      </c>
+      <c r="C316" t="s"/>
+      <c r="D316" t="n">
+        <v>0.007883349433541298</v>
+      </c>
+      <c r="E316" t="n">
+        <v>0.06488879024982452</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.07276220619678497</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="n">
+        <v>365.8008117675781</v>
+      </c>
+      <c r="B317" t="n">
+        <v>4.039129257202148</v>
+      </c>
+      <c r="C317" t="s"/>
+      <c r="D317" t="n">
+        <v>0.008873108774423599</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.05851385742425919</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.06730076670646667</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="n">
+        <v>368.1950988769531</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.90223503112793</v>
+      </c>
+      <c r="C318" t="s"/>
+      <c r="D318" t="n">
+        <v>0.00737878680229187</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.05256302654743195</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.05984837934374809</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="n">
+        <v>370.47216796875</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.89567756652832</v>
+      </c>
+      <c r="C319" t="s"/>
+      <c r="D319" t="n">
+        <v>0.008365873247385025</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.04679181054234505</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.05500000342726707</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="n">
+        <v>372.0888366699219</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5.227219581604004</v>
+      </c>
+      <c r="C320" t="s"/>
+      <c r="D320" t="n">
+        <v>0.01137503609061241</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.08504192531108856</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.09638597071170807</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321" t="n">
+        <v>375.5465087890625</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5.178487777709961</v>
+      </c>
+      <c r="C321" t="s"/>
+      <c r="D321" t="n">
+        <v>0.01167385280132294</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.07739843428134918</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.08896304666996002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322" t="n">
+        <v>349.6973571777344</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.797409296035767</v>
+      </c>
+      <c r="C322" t="s"/>
+      <c r="D322" t="n">
+        <v>0.007281277794390917</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.08056868612766266</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.08790513873100281</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323" t="n">
+        <v>351.9440307617188</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3.709883213043213</v>
+      </c>
+      <c r="C323" t="s"/>
+      <c r="D323" t="n">
+        <v>0.00746610201895237</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.07231678068637848</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.07985811680555344</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" t="n">
+        <v>354.4402770996094</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.648313760757446</v>
+      </c>
+      <c r="C324" t="s"/>
+      <c r="D324" t="n">
+        <v>0.007491175550967455</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.06549926102161407</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.07305371761322021</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="n">
+        <v>356.9022216796875</v>
+      </c>
+      <c r="B325" t="n">
+        <v>4.195321083068848</v>
+      </c>
+      <c r="C325" t="s"/>
+      <c r="D325" t="n">
+        <v>0.008372636511921883</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.07987126708030701</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.08829493820667267</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326" t="n">
+        <v>341.3921203613281</v>
+      </c>
+      <c r="B326" t="n">
+        <v>3.452613830566406</v>
+      </c>
+      <c r="C326" t="s"/>
+      <c r="D326" t="n">
+        <v>0.00871662050485611</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.08135350048542023</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.09000255912542343</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" t="n">
+        <v>347.9043273925781</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3.264990568161011</v>
+      </c>
+      <c r="C327" t="s"/>
+      <c r="D327" t="n">
+        <v>0.01207564771175385</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.04864413663744926</v>
+      </c>
+      <c r="F327" t="n">
+        <v>0.06093093007802963</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" t="n">
+        <v>349.8744506835938</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3.840168237686157</v>
+      </c>
+      <c r="C328" t="s"/>
+      <c r="D328" t="n">
+        <v>0.01354704983532429</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.06545024365186691</v>
+      </c>
+      <c r="F328" t="n">
+        <v>0.07910148799419403</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="n">
+        <v>347.378173828125</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.932983160018921</v>
+      </c>
+      <c r="C329" t="s"/>
+      <c r="D329" t="n">
+        <v>0.01208390761166811</v>
+      </c>
+      <c r="E329" t="n">
+        <v>0.07953038811683655</v>
+      </c>
+      <c r="F329" t="n">
+        <v>0.0915922224521637</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330" t="n">
+        <v>352.7966918945312</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.422938346862793</v>
+      </c>
+      <c r="C330" t="s"/>
+      <c r="D330" t="n">
+        <v>0.01547321677207947</v>
+      </c>
+      <c r="E330" t="n">
+        <v>0.07931224256753922</v>
+      </c>
+      <c r="F330" t="n">
+        <v>0.09478828310966492</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331" t="n">
+        <v>358.0976867675781</v>
+      </c>
+      <c r="B331" t="n">
+        <v>4.28148365020752</v>
+      </c>
+      <c r="C331" t="s"/>
+      <c r="D331" t="n">
+        <v>0.01708569005131721</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0.05854982137680054</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.07572121173143387</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332" t="n">
+        <v>360.4014587402344</v>
+      </c>
+      <c r="B332" t="n">
+        <v>4.251569271087646</v>
+      </c>
+      <c r="C332" t="s"/>
+      <c r="D332" t="n">
+        <v>0.01727999746799469</v>
+      </c>
+      <c r="E332" t="n">
+        <v>0.05274711549282074</v>
+      </c>
+      <c r="F332" t="n">
+        <v>0.07009965926408768</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333" t="n">
+        <v>365.472900390625</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5.731326580047607</v>
+      </c>
+      <c r="C333" t="s"/>
+      <c r="D333" t="n">
+        <v>0.02400917746126652</v>
+      </c>
+      <c r="E333" t="n">
+        <v>0.08466920256614685</v>
+      </c>
+      <c r="F333" t="n">
+        <v>0.1086674183607101</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334" t="n">
+        <v>363.5098571777344</v>
+      </c>
+      <c r="B334" t="n">
+        <v>4.762532711029053</v>
+      </c>
+      <c r="C334" t="s"/>
+      <c r="D334" t="n">
+        <v>0.01879333518445492</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.06383918225765228</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.08265074342489243</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335" t="n">
+        <v>360.9871215820312</v>
+      </c>
+      <c r="B335" t="n">
+        <v>4.868613243103027</v>
+      </c>
+      <c r="C335" t="s"/>
+      <c r="D335" t="n">
+        <v>0.01937487348914146</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.07078367471694946</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.09019729495048523</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336" t="n">
+        <v>358.72900390625</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5.021892547607422</v>
+      </c>
+      <c r="C336" t="s"/>
+      <c r="D336" t="n">
+        <v>0.01772896945476532</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.08618433773517609</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.1038790643215179</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" t="n">
+        <v>374.8912048339844</v>
+      </c>
+      <c r="B337" t="n">
+        <v>7.426772117614746</v>
+      </c>
+      <c r="C337" t="s"/>
+      <c r="D337" t="n">
+        <v>0.03339172154664993</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.104414701461792</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.1381299644708633</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338" t="n">
+        <v>372.4472961425781</v>
+      </c>
+      <c r="B338" t="n">
+        <v>7.526601791381836</v>
+      </c>
+      <c r="C338" t="s"/>
+      <c r="D338" t="n">
+        <v>0.03729575872421265</v>
+      </c>
+      <c r="E338" t="n">
+        <v>0.1045769453048706</v>
+      </c>
+      <c r="F338" t="n">
+        <v>0.1422028094530106</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" t="n">
+        <v>369.7229919433594</v>
+      </c>
+      <c r="B339" t="n">
+        <v>7.626377105712891</v>
+      </c>
+      <c r="C339" t="s"/>
+      <c r="D339" t="n">
+        <v>0.0413544550538063</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0.1048085689544678</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0.1462861448526382</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" t="n">
+        <v>369.410400390625</v>
+      </c>
+      <c r="B340" t="n">
+        <v>6.355277061462402</v>
+      </c>
+      <c r="C340" t="s"/>
+      <c r="D340" t="n">
+        <v>0.02780219726264477</v>
+      </c>
+      <c r="E340" t="n">
+        <v>0.08989472687244415</v>
+      </c>
+      <c r="F340" t="n">
+        <v>0.1178669482469559</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" t="n">
+        <v>367.0478515625</v>
+      </c>
+      <c r="B341" t="n">
+        <v>6.467968940734863</v>
+      </c>
+      <c r="C341" t="s"/>
+      <c r="D341" t="n">
+        <v>0.03167058527469635</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.09021103382110596</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.1220080107450485</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="n">
+        <v>364.0700988769531</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6.537762641906738</v>
+      </c>
+      <c r="C342" t="s"/>
+      <c r="D342" t="n">
+        <v>0.03527871519327164</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.09061059355735779</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.1257747262716293</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="n">
+        <v>362.5723876953125</v>
+      </c>
+      <c r="B343" t="n">
+        <v>5.701381206512451</v>
+      </c>
+      <c r="C343" t="s"/>
+      <c r="D343" t="n">
+        <v>0.02334848418831825</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0.08937956392765045</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.1123526319861412</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="n">
+        <v>359.8397216796875</v>
+      </c>
+      <c r="B344" t="n">
+        <v>5.773963928222656</v>
+      </c>
+      <c r="C344" t="s"/>
+      <c r="D344" t="n">
+        <v>0.0266549363732338</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0.08991563320159912</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.1161155328154564</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="n">
+        <v>357.0494689941406</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5.798430442810059</v>
+      </c>
+      <c r="C345" t="s"/>
+      <c r="D345" t="n">
+        <v>0.02935397811233997</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.09034983813762665</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.1190445721149445</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="n">
+        <v>354.6492614746094</v>
+      </c>
+      <c r="B346" t="n">
+        <v>5.121649742126465</v>
+      </c>
+      <c r="C346" t="s"/>
+      <c r="D346" t="n">
+        <v>0.01909988187253475</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.0925125777721405</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.1110230982303619</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="n">
+        <v>352.9630737304688</v>
+      </c>
+      <c r="B347" t="n">
+        <v>5.19200611114502</v>
+      </c>
+      <c r="C347" t="s"/>
+      <c r="D347" t="n">
+        <v>0.02136040478944778</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.09296455979347229</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.1136778146028519</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="n">
+        <v>350.2567138671875</v>
+      </c>
+      <c r="B348" t="n">
+        <v>5.164191246032715</v>
+      </c>
+      <c r="C348" t="s"/>
+      <c r="D348" t="n">
+        <v>0.0230878870934248</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.09326047450304031</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.1156099960207939</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="n">
+        <v>350.6874084472656</v>
+      </c>
+      <c r="B349" t="n">
+        <v>4.279928684234619</v>
+      </c>
+      <c r="C349" t="s"/>
+      <c r="D349" t="n">
+        <v>0.01514175534248352</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.07916072010993958</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.09411431849002838</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="n">
+        <v>348.3005676269531</v>
+      </c>
+      <c r="B350" t="n">
+        <v>4.289493560791016</v>
+      </c>
+      <c r="C350" t="s"/>
+      <c r="D350" t="n">
+        <v>0.01721616648137569</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.07945528626441956</v>
+      </c>
+      <c r="F350" t="n">
+        <v>0.09654185175895691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="n">
+        <v>345.2237243652344</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4.263571739196777</v>
+      </c>
+      <c r="C351" t="s"/>
+      <c r="D351" t="n">
+        <v>0.01913044974207878</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.07989593595266342</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0.09883303940296173</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="n">
+        <v>350.4385681152344</v>
+      </c>
+      <c r="B352" t="n">
+        <v>4.140774250030518</v>
+      </c>
+      <c r="C352" t="s"/>
+      <c r="D352" t="n">
+        <v>0.01342998817563057</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.07956673204898834</v>
+      </c>
+      <c r="F352" t="n">
+        <v>0.09313370287418365</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="n">
+        <v>347.9210205078125</v>
+      </c>
+      <c r="B353" t="n">
+        <v>4.175192832946777</v>
+      </c>
+      <c r="C353" t="s"/>
+      <c r="D353" t="n">
+        <v>0.01568298414349556</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.08003485947847366</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.09585332125425339</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="n">
+        <v>345.2326354980469</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4.177741050720215</v>
+      </c>
+      <c r="C354" t="s"/>
+      <c r="D354" t="n">
+        <v>0.01758298464119434</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.08048887550830841</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.09811906516551971</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="n">
+        <v>346.6370849609375</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4.439401626586914</v>
+      </c>
+      <c r="C355" t="s"/>
+      <c r="D355" t="n">
+        <v>0.01455227844417095</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.09251879155635834</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.1068694368004799</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="n">
+        <v>345.3827514648438</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4.427762031555176</v>
+      </c>
+      <c r="C356" t="s"/>
+      <c r="D356" t="n">
+        <v>0.01530195400118828</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.09269963204860687</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.1078310161828995</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="n">
+        <v>342.7255249023438</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4.408170223236084</v>
+      </c>
+      <c r="C357" t="s"/>
+      <c r="D357" t="n">
+        <v>0.01672082580626011</v>
+      </c>
+      <c r="E357" t="n">
+        <v>0.09333318471908569</v>
+      </c>
+      <c r="F357" t="n">
+        <v>0.1097796484827995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="n">
+        <v>348.0415344238281</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4.108898639678955</v>
+      </c>
+      <c r="C358" t="s"/>
+      <c r="D358" t="n">
+        <v>0.01368327438831329</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.0821477472782135</v>
+      </c>
+      <c r="F358" t="n">
+        <v>0.09605897963047028</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="n">
+        <v>346.0994873046875</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4.116410732269287</v>
+      </c>
+      <c r="C359" t="s"/>
+      <c r="D359" t="n">
+        <v>0.01528328843414783</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.08239410817623138</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.09793971478939056</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="n">
+        <v>343.344482421875</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4.096500873565674</v>
+      </c>
+      <c r="C360" t="s"/>
+      <c r="D360" t="n">
+        <v>0.01686601340770721</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.08294795453548431</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.09999680519104004</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="n">
+        <v>366.5891418457031</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4.826188087463379</v>
+      </c>
+      <c r="C361" t="s"/>
+      <c r="D361" t="n">
+        <v>0.01771928369998932</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.06363371014595032</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.0816756933927536</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="n">
+        <v>364.6900024414062</v>
+      </c>
+      <c r="B362" t="n">
+        <v>4.688589096069336</v>
+      </c>
+      <c r="C362" t="s"/>
+      <c r="D362" t="n">
+        <v>0.01360932923853397</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.07149677723646164</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.08491780608892441</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="n">
+        <v>360.2041015625</v>
+      </c>
+      <c r="B363" t="n">
+        <v>4.83170747756958</v>
+      </c>
+      <c r="C363" t="s"/>
+      <c r="D363" t="n">
+        <v>0.01329941116273403</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0.08683449029922485</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0.09981878101825714</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="n">
+        <v>352.8081665039062</v>
+      </c>
+      <c r="B364" t="n">
+        <v>3.596494674682617</v>
+      </c>
+      <c r="C364" t="s"/>
+      <c r="D364" t="n">
+        <v>0.007710840553045273</v>
+      </c>
+      <c r="E364" t="n">
+        <v>0.06673196703195572</v>
+      </c>
+      <c r="F364" t="n">
+        <v>0.07417201995849609</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="n">
+        <v>349.330810546875</v>
+      </c>
+      <c r="B365" t="n">
+        <v>3.718125820159912</v>
+      </c>
+      <c r="C365" t="s"/>
+      <c r="D365" t="n">
+        <v>0.006998385768383741</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.08063823729753494</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.0881386324763298</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="n">
+        <v>350.7845458984375</v>
+      </c>
+      <c r="B366" t="n">
+        <v>3.235684633255005</v>
+      </c>
+      <c r="C366" t="s"/>
+      <c r="D366" t="n">
+        <v>0.01035711262375116</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.04910500720143318</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.0587940439581871</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="n">
+        <v>343.5325012207031</v>
+      </c>
+      <c r="B367" t="n">
+        <v>3.435393333435059</v>
+      </c>
+      <c r="C367" t="s"/>
+      <c r="D367" t="n">
+        <v>0.007920870557427406</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.07988298684358597</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.08896493166685104</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="n">
+        <v>354.9122314453125</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.351590156555176</v>
+      </c>
+      <c r="C368" t="s"/>
+      <c r="D368" t="n">
+        <v>0.01379755884408951</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.07899460941553116</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.09278622269630432</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="n">
+        <v>360.9620666503906</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4.241089344024658</v>
+      </c>
+      <c r="C369" t="s"/>
+      <c r="D369" t="n">
+        <v>0.01491441763937473</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.05836131423711777</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0.0732320249080658</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="n">
+        <v>362.8277282714844</v>
+      </c>
+      <c r="B370" t="n">
+        <v>4.188100337982178</v>
+      </c>
+      <c r="C370" t="s"/>
+      <c r="D370" t="n">
+        <v>0.01490018703043461</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.05224249511957169</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.0672658383846283</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="n">
+        <v>366.7992553710938</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5.572628974914551</v>
+      </c>
+      <c r="C371" t="s"/>
+      <c r="D371" t="n">
+        <v>0.02086116746068001</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.08500494062900543</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.105716198682785</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="n">
+        <v>368.00048828125</v>
+      </c>
+      <c r="B372" t="n">
+        <v>4.629995346069336</v>
+      </c>
+      <c r="C372" t="s"/>
+      <c r="D372" t="n">
+        <v>0.00975770503282547</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.07177644968032837</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.08137174695730209</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="n">
+        <v>370.5082702636719</v>
+      </c>
+      <c r="B373" t="n">
+        <v>4.596473693847656</v>
+      </c>
+      <c r="C373" t="s"/>
+      <c r="D373" t="n">
+        <v>0.01018056087195873</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.06431557238101959</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.07480208575725555</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="n">
+        <v>362.5805969238281</v>
+      </c>
+      <c r="B374" t="n">
+        <v>4.772926330566406</v>
+      </c>
+      <c r="C374" t="s"/>
+      <c r="D374" t="n">
+        <v>0.01024199649691582</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.08686789125204086</v>
+      </c>
+      <c r="F374" t="n">
+        <v>0.09655262529850006</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="n">
+        <v>377.3414001464844</v>
+      </c>
+      <c r="B375" t="n">
+        <v>4.589497089385986</v>
+      </c>
+      <c r="C375" t="s"/>
+      <c r="D375" t="n">
+        <v>0.01209713518619537</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.04431617632508278</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.05891400948166847</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="n">
+        <v>353.6950073242188</v>
+      </c>
+      <c r="B376" t="n">
+        <v>3.16240119934082</v>
+      </c>
+      <c r="C376" t="s"/>
+      <c r="D376" t="n">
+        <v>0.006799861788749695</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.04875297099351883</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.05481391027569771</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="n">
+        <v>351.695556640625</v>
+      </c>
+      <c r="B377" t="n">
+        <v>3.194397211074829</v>
+      </c>
+      <c r="C377" t="s"/>
+      <c r="D377" t="n">
+        <v>0.006825855933129787</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.05468582734465599</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.06083391234278679</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="n">
+        <v>349.8646850585938</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.14867901802063</v>
+      </c>
+      <c r="C378" t="s"/>
+      <c r="D378" t="n">
+        <v>0.005803897976875305</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.06011456996202469</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.06550376117229462</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="n">
+        <v>348.0231018066406</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.235137939453125</v>
+      </c>
+      <c r="C379" t="s"/>
+      <c r="D379" t="n">
+        <v>0.00610791053622961</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.06666373461484909</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.07270897179841995</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="n">
+        <v>346.0605163574219</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.352539539337158</v>
+      </c>
+      <c r="C380" t="s"/>
+      <c r="D380" t="n">
+        <v>0.006469723768532276</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.07386946678161621</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.08062630146741867</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="n">
+        <v>343.8443908691406</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.400768995285034</v>
+      </c>
+      <c r="C381" t="s"/>
+      <c r="D381" t="n">
+        <v>0.006351836957037449</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.08061371743679047</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.0879010409116745</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="n">
+        <v>360.1678771972656</v>
+      </c>
+      <c r="B382" t="n">
+        <v>4.12906551361084</v>
+      </c>
+      <c r="C382" t="s"/>
+      <c r="D382" t="n">
+        <v>0.007952029816806316</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.0726131945848465</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.0801854282617569</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="n">
+        <v>362.7125244140625</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4.039315700531006</v>
+      </c>
+      <c r="C383" t="s"/>
+      <c r="D383" t="n">
+        <v>0.007538597099483013</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.06510965526103973</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.07233914732933044</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="n">
+        <v>365.0677185058594</v>
+      </c>
+      <c r="B384" t="n">
+        <v>4.112481117248535</v>
+      </c>
+      <c r="C384" t="s"/>
+      <c r="D384" t="n">
+        <v>0.009368160739541054</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0.05828549712896347</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0.06768737733364105</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="n">
+        <v>367.4972534179688</v>
+      </c>
+      <c r="B385" t="n">
+        <v>3.999456644058228</v>
+      </c>
+      <c r="C385" t="s"/>
+      <c r="D385" t="n">
+        <v>0.007570058107376099</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.05205735564231873</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.05996409431099892</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="n">
+        <v>369.2019958496094</v>
+      </c>
+      <c r="B386" t="n">
+        <v>4.024171352386475</v>
+      </c>
+      <c r="C386" t="s"/>
+      <c r="D386" t="n">
+        <v>0.009335799142718315</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.04574838280677795</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.05596067383885384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="n">
+        <v>371.7205810546875</v>
+      </c>
+      <c r="B387" t="n">
+        <v>5.17417049407959</v>
+      </c>
+      <c r="C387" t="s"/>
+      <c r="D387" t="n">
+        <v>0.009321765042841434</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.08539766818284988</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.0940406322479248</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="n">
+        <v>374.6339111328125</v>
+      </c>
+      <c r="B388" t="n">
+        <v>5.169130802154541</v>
+      </c>
+      <c r="C388" t="s"/>
+      <c r="D388" t="n">
+        <v>0.01008144952356815</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.07742524147033691</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.08747069537639618</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="n">
+        <v>350.2675170898438</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.798422336578369</v>
+      </c>
+      <c r="C389" t="s"/>
+      <c r="D389" t="n">
+        <v>0.007868308573961258</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.08030335605144501</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.08849380910396576</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="n">
+        <v>352.3739929199219</v>
+      </c>
+      <c r="B390" t="n">
+        <v>3.697569370269775</v>
+      </c>
+      <c r="C390" t="s"/>
+      <c r="D390" t="n">
+        <v>0.00782744400203228</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.0725017711520195</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.08030200004577637</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="n">
+        <v>354.5707702636719</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3.645747184753418</v>
+      </c>
+      <c r="C391" t="s"/>
+      <c r="D391" t="n">
+        <v>0.007813802920281887</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.06587761640548706</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.07339989393949509</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="n">
+        <v>357.5831604003906</v>
+      </c>
+      <c r="B392" t="n">
+        <v>4.171586036682129</v>
+      </c>
+      <c r="C392" t="s"/>
+      <c r="D392" t="n">
+        <v>0.00807780958712101</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.07981853187084198</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.08770638704299927</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="n">
+        <v>341.4417419433594</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.485243558883667</v>
+      </c>
+      <c r="C393" t="s"/>
+      <c r="D393" t="n">
+        <v>0.009544866159558296</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.0810866579413414</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.09176856279373169</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="n">
+        <v>347.8327026367188</v>
+      </c>
+      <c r="B394" t="n">
+        <v>3.194313526153564</v>
+      </c>
+      <c r="C394" t="s"/>
+      <c r="D394" t="n">
+        <v>0.01200856082141399</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.04933186247944832</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.0606904998421669</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="n">
+        <v>350.4026184082031</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3.799027442932129</v>
+      </c>
+      <c r="C395" t="s"/>
+      <c r="D395" t="n">
+        <v>0.01379536837339401</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.0659431666135788</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0.07966096699237823</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="n">
+        <v>347.728759765625</v>
+      </c>
+      <c r="B396" t="n">
+        <v>3.942404747009277</v>
+      </c>
+      <c r="C396" t="s"/>
+      <c r="D396" t="n">
+        <v>0.01281706057488918</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.07943491637706757</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.09270629286766052</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="n">
+        <v>353.159423828125</v>
+      </c>
+      <c r="B397" t="n">
+        <v>4.419703006744385</v>
+      </c>
+      <c r="C397" t="s"/>
+      <c r="D397" t="n">
+        <v>0.01605372130870819</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.07940913736820221</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.09548036754131317</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="n">
+        <v>358.5789794921875</v>
+      </c>
+      <c r="B398" t="n">
+        <v>4.254124164581299</v>
+      </c>
+      <c r="C398" t="s"/>
+      <c r="D398" t="n">
+        <v>0.01717995665967464</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.05883660167455673</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.07593262195587158</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="n">
+        <v>360.6792602539062</v>
+      </c>
+      <c r="B399" t="n">
+        <v>4.249330043792725</v>
+      </c>
+      <c r="C399" t="s"/>
+      <c r="D399" t="n">
+        <v>0.01742041669785976</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.05274072661995888</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.07017573714256287</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="n">
+        <v>365.0731201171875</v>
+      </c>
+      <c r="B400" t="n">
+        <v>5.709217071533203</v>
+      </c>
+      <c r="C400" t="s"/>
+      <c r="D400" t="n">
+        <v>0.02450734190642834</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.08501870930194855</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.1094194576144218</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="n">
+        <v>363.5894165039062</v>
+      </c>
+      <c r="B401" t="n">
+        <v>4.760719299316406</v>
+      </c>
+      <c r="C401" t="s"/>
+      <c r="D401" t="n">
+        <v>0.01913948729634285</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.06394963711500168</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.08324322104454041</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="n">
+        <v>361.2584533691406</v>
+      </c>
+      <c r="B402" t="n">
+        <v>4.84730052947998</v>
+      </c>
+      <c r="C402" t="s"/>
+      <c r="D402" t="n">
+        <v>0.01965496502816677</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.07110662013292313</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.09075431525707245</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="n">
+        <v>358.6283874511719</v>
+      </c>
+      <c r="B403" t="n">
+        <v>5.034145832061768</v>
+      </c>
+      <c r="C403" t="s"/>
+      <c r="D403" t="n">
+        <v>0.01858356781303883</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.08609828352928162</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.1044471114873886</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="n">
+        <v>375.8579711914062</v>
+      </c>
+      <c r="B404" t="n">
+        <v>7.291047096252441</v>
+      </c>
+      <c r="C404" t="s"/>
+      <c r="D404" t="n">
+        <v>0.03276356309652328</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.1030320525169373</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.1362679898738861</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="n">
+        <v>372.6300048828125</v>
+      </c>
+      <c r="B405" t="n">
+        <v>7.401914596557617</v>
+      </c>
+      <c r="C405" t="s"/>
+      <c r="D405" t="n">
+        <v>0.03662523254752159</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.1035578101873398</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.1398673802614212</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="n">
+        <v>368.972412109375</v>
+      </c>
+      <c r="B406" t="n">
+        <v>7.521307945251465</v>
+      </c>
+      <c r="C406" t="s"/>
+      <c r="D406" t="n">
+        <v>0.04112877696752548</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.1040767133235931</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0.1440684050321579</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="n">
+        <v>370.5850219726562</v>
+      </c>
+      <c r="B407" t="n">
+        <v>6.326236724853516</v>
+      </c>
+      <c r="C407" t="s"/>
+      <c r="D407" t="n">
+        <v>0.02693360112607479</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.09022928029298782</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.1174449175596237</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="n">
+        <v>367.6705017089844</v>
+      </c>
+      <c r="B408" t="n">
+        <v>6.441621780395508</v>
+      </c>
+      <c r="C408" t="s"/>
+      <c r="D408" t="n">
+        <v>0.03058500774204731</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.09096463024616241</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.1212688088417053</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="n">
+        <v>363.9236145019531</v>
+      </c>
+      <c r="B409" t="n">
+        <v>6.527478694915771</v>
+      </c>
+      <c r="C409" t="s"/>
+      <c r="D409" t="n">
+        <v>0.03456650301814079</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.09155789762735367</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.1254200488328934</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="n">
+        <v>364.1190490722656</v>
+      </c>
+      <c r="B410" t="n">
+        <v>5.691622257232666</v>
+      </c>
+      <c r="C410" t="s"/>
+      <c r="D410" t="n">
+        <v>0.02255220338702202</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.08956337720155716</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.1122714430093765</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="n">
+        <v>360.9557495117188</v>
+      </c>
+      <c r="B411" t="n">
+        <v>5.769853591918945</v>
+      </c>
+      <c r="C411" t="s"/>
+      <c r="D411" t="n">
+        <v>0.02594945020973682</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.09026196599006653</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.1160170435905457</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="n">
+        <v>356.9998168945312</v>
+      </c>
+      <c r="B412" t="n">
+        <v>5.823779582977295</v>
+      </c>
+      <c r="C412" t="s"/>
+      <c r="D412" t="n">
+        <v>0.02967823296785355</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.09053653478622437</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.1198887079954147</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="n">
+        <v>356.4952392578125</v>
+      </c>
+      <c r="B413" t="n">
+        <v>5.109679222106934</v>
+      </c>
+      <c r="C413" t="s"/>
+      <c r="D413" t="n">
+        <v>0.01886028237640858</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.09177254140377045</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.1109666749835014</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="n">
+        <v>354.5309448242188</v>
+      </c>
+      <c r="B414" t="n">
+        <v>5.190054893493652</v>
+      </c>
+      <c r="C414" t="s"/>
+      <c r="D414" t="n">
+        <v>0.02157972753047943</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.09197181463241577</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.1139472872018814</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="n">
+        <v>350.6288452148438</v>
+      </c>
+      <c r="B415" t="n">
+        <v>5.195802211761475</v>
+      </c>
+      <c r="C415" t="s"/>
+      <c r="D415" t="n">
+        <v>0.02473648451268673</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.09180974960327148</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.1171505600214005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="n">
+        <v>351.9176025390625</v>
+      </c>
+      <c r="B416" t="n">
+        <v>4.256108283996582</v>
+      </c>
+      <c r="C416" t="s"/>
+      <c r="D416" t="n">
+        <v>0.01378270238637924</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.07953093945980072</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.09313492476940155</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="n">
+        <v>348.5756225585938</v>
+      </c>
+      <c r="B417" t="n">
+        <v>4.279174327850342</v>
+      </c>
+      <c r="C417" t="s"/>
+      <c r="D417" t="n">
+        <v>0.0163948442786932</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.079560786485672</v>
+      </c>
+      <c r="F417" t="n">
+        <v>0.09608031064271927</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="n">
+        <v>344.2636108398438</v>
+      </c>
+      <c r="B418" t="n">
+        <v>4.281251907348633</v>
+      </c>
+      <c r="C418" t="s"/>
+      <c r="D418" t="n">
+        <v>0.01952983997762203</v>
+      </c>
+      <c r="E418" t="n">
+        <v>0.07943412661552429</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0.09976930171251297</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="n">
+        <v>349.8937377929688</v>
+      </c>
+      <c r="B419" t="n">
+        <v>4.137178897857666</v>
+      </c>
+      <c r="C419" t="s"/>
+      <c r="D419" t="n">
+        <v>0.01267680153250694</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.0799577385187149</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.09259761869907379</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="n">
+        <v>346.9476318359375</v>
+      </c>
+      <c r="B420" t="n">
+        <v>4.176415920257568</v>
+      </c>
+      <c r="C420" t="s"/>
+      <c r="D420" t="n">
+        <v>0.01549424417316914</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.07971321046352386</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.09585153311491013</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="n">
+        <v>343.5103759765625</v>
+      </c>
+      <c r="B421" t="n">
+        <v>4.200138092041016</v>
+      </c>
+      <c r="C421" t="s"/>
+      <c r="D421" t="n">
+        <v>0.01845928467810154</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.07944757491350174</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.0993642657995224</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="n">
+        <v>348.6373901367188</v>
+      </c>
+      <c r="B422" t="n">
+        <v>4.401508808135986</v>
+      </c>
+      <c r="C422" t="s"/>
+      <c r="D422" t="n">
+        <v>0.01451955735683441</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.09128583967685699</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.1061414778232574</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="n">
+        <v>346.8587646484375</v>
+      </c>
+      <c r="B423" t="n">
+        <v>4.400356769561768</v>
+      </c>
+      <c r="C423" t="s"/>
+      <c r="D423" t="n">
+        <v>0.01585062593221664</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.09115973114967346</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.1075322777032852</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="n">
+        <v>343.1852111816406</v>
+      </c>
+      <c r="B424" t="n">
+        <v>4.416635990142822</v>
+      </c>
+      <c r="C424" t="s"/>
+      <c r="D424" t="n">
+        <v>0.0190262533724308</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.09084545075893402</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0.11111119389534</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="n">
+        <v>347.7970275878906</v>
+      </c>
+      <c r="B425" t="n">
+        <v>4.087618350982666</v>
+      </c>
+      <c r="C425" t="s"/>
+      <c r="D425" t="n">
+        <v>0.01281325705349445</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.08274948596954346</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.09513063728809357</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="n">
+        <v>345.1343994140625</v>
+      </c>
+      <c r="B426" t="n">
+        <v>4.103246212005615</v>
+      </c>
+      <c r="C426" t="s"/>
+      <c r="D426" t="n">
+        <v>0.01500657573342323</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.08263269811868668</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.09757520258426666</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="n">
+        <v>341.2509155273438</v>
+      </c>
+      <c r="B427" t="n">
+        <v>4.108212947845459</v>
+      </c>
+      <c r="C427" t="s"/>
+      <c r="D427" t="n">
+        <v>0.01801852136850357</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.08233214914798737</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.1012338176369667</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="n">
+        <v>366.4677124023438</v>
+      </c>
+      <c r="B428" t="n">
+        <v>4.856703758239746</v>
+      </c>
+      <c r="C428" t="s"/>
+      <c r="D428" t="n">
+        <v>0.01705135963857174</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.06557390093803406</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0.0823156014084816</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="n">
+        <v>363.793212890625</v>
+      </c>
+      <c r="B429" t="n">
+        <v>4.756421089172363</v>
+      </c>
+      <c r="C429" t="s"/>
+      <c r="D429" t="n">
+        <v>0.01436560228466988</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.0707281306385994</v>
+      </c>
+      <c r="F429" t="n">
+        <v>0.08665504306554794</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="n">
+        <v>359.0218505859375</v>
+      </c>
+      <c r="B430" t="n">
+        <v>4.895715236663818</v>
+      </c>
+      <c r="C430" t="s"/>
+      <c r="D430" t="n">
+        <v>0.01428217999637127</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.08620654046535492</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0.1010352522134781</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="n">
+        <v>352.7400207519531</v>
+      </c>
+      <c r="B431" t="n">
+        <v>3.586522817611694</v>
+      </c>
+      <c r="C431" t="s"/>
+      <c r="D431" t="n">
+        <v>0.00756235234439373</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.06474065780639648</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0.07396351546049118</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="n">
+        <v>348.4053955078125</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3.701409101486206</v>
+      </c>
+      <c r="C432" t="s"/>
+      <c r="D432" t="n">
+        <v>0.00680831354111433</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.07975084334611893</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.08753351867198944</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="n">
+        <v>353.0447998046875</v>
+      </c>
+      <c r="B433" t="n">
+        <v>3.130388736724854</v>
+      </c>
+      <c r="C433" t="s"/>
+      <c r="D433" t="n">
+        <v>0.008977186866104603</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.04769603163003922</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.05599550157785416</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="n">
+        <v>342.8672790527344</v>
+      </c>
+      <c r="B434" t="n">
+        <v>3.363092184066772</v>
+      </c>
+      <c r="C434" t="s"/>
+      <c r="D434" t="n">
+        <v>0.00606764480471611</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.08172274380922318</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.08624289929866791</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="n">
+        <v>354.3060913085938</v>
+      </c>
+      <c r="B435" t="n">
+        <v>4.373053550720215</v>
+      </c>
+      <c r="C435" t="s"/>
+      <c r="D435" t="n">
+        <v>0.01265099924057722</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.08103091269731522</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.09232920408248901</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="n">
+        <v>361.5733642578125</v>
+      </c>
+      <c r="B436" t="n">
+        <v>4.219072341918945</v>
+      </c>
+      <c r="C436" t="s"/>
+      <c r="D436" t="n">
+        <v>0.01390134170651436</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.05922058597207069</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0.07286477088928223</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="n">
+        <v>363.2803955078125</v>
+      </c>
+      <c r="B437" t="n">
+        <v>4.143067836761475</v>
+      </c>
+      <c r="C437" t="s"/>
+      <c r="D437" t="n">
+        <v>0.01423188671469688</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.05279383063316345</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0.06683886051177979</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="n">
+        <v>365.7550354003906</v>
+      </c>
+      <c r="B438" t="n">
+        <v>5.656851768493652</v>
+      </c>
+      <c r="C438" t="s"/>
+      <c r="D438" t="n">
+        <v>0.02081097476184368</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.08711879700422287</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.1062628477811813</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="n">
+        <v>367.7811279296875</v>
+      </c>
+      <c r="B439" t="n">
+        <v>4.701674461364746</v>
+      </c>
+      <c r="C439" t="s"/>
+      <c r="D439" t="n">
+        <v>0.01073372922837734</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.07169684767723083</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.08329605311155319</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="n">
+        <v>370.3690490722656</v>
+      </c>
+      <c r="B440" t="n">
+        <v>4.638087749481201</v>
+      </c>
+      <c r="C440" t="s"/>
+      <c r="D440" t="n">
+        <v>0.01107307150959969</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.06462610512971878</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.0764404758810997</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="n">
+        <v>362.2069091796875</v>
+      </c>
+      <c r="B441" t="n">
+        <v>4.845633029937744</v>
+      </c>
+      <c r="C441" t="s"/>
+      <c r="D441" t="n">
+        <v>0.0112304612994194</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.08660364151000977</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.0981275886297226</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="n">
+        <v>377.4261474609375</v>
+      </c>
+      <c r="B442" t="n">
+        <v>4.442764282226562</v>
+      </c>
+      <c r="C442" t="s"/>
+      <c r="D442" t="n">
+        <v>0.01293519139289856</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.04577019438147545</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.0578763410449028</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="n">
+        <v>356.1340026855469</v>
+      </c>
+      <c r="B443" t="n">
+        <v>3.051436185836792</v>
+      </c>
+      <c r="C443" t="s"/>
+      <c r="D443" t="n">
+        <v>0.006011596880853176</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.04700670391321182</v>
+      </c>
+      <c r="F443" t="n">
+        <v>0.05211621895432472</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="n">
+        <v>353.8855285644531</v>
+      </c>
+      <c r="B444" t="n">
+        <v>3.110744714736938</v>
+      </c>
+      <c r="C444" t="s"/>
+      <c r="D444" t="n">
+        <v>0.005667431280016899</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.05352755263447762</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0.05842594429850578</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="n">
+        <v>351.0190124511719</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3.094197988510132</v>
+      </c>
+      <c r="C445" t="s"/>
+      <c r="D445" t="n">
+        <v>0.004564962349832058</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.05944062024354935</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0.0634651705622673</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="n">
+        <v>348.9671325683594</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.184321880340576</v>
+      </c>
+      <c r="C446" t="s"/>
+      <c r="D446" t="n">
+        <v>0.004585058428347111</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.06652785092592239</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.07059115916490555</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="n">
+        <v>347.1666259765625</v>
+      </c>
+      <c r="B447" t="n">
+        <v>3.290515184402466</v>
+      </c>
+      <c r="C447" t="s"/>
+      <c r="D447" t="n">
+        <v>0.004806143697351217</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.07390615344047546</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.07828263938426971</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="n">
+        <v>344.1990356445312</v>
+      </c>
+      <c r="B448" t="n">
+        <v>3.323019981384277</v>
+      </c>
+      <c r="C448" t="s"/>
+      <c r="D448" t="n">
+        <v>0.004706279374659061</v>
+      </c>
+      <c r="E448" t="n">
+        <v>0.08128999173641205</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0.08522385358810425</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="n">
+        <v>360.2567749023438</v>
+      </c>
+      <c r="B449" t="n">
+        <v>4.16428804397583</v>
+      </c>
+      <c r="C449" t="s"/>
+      <c r="D449" t="n">
+        <v>0.008089557290077209</v>
+      </c>
+      <c r="E449" t="n">
+        <v>0.07229062169790268</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0.08098107576370239</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="n">
+        <v>362.5879821777344</v>
+      </c>
+      <c r="B450" t="n">
+        <v>4.068929195404053</v>
+      </c>
+      <c r="C450" t="s"/>
+      <c r="D450" t="n">
+        <v>0.007914178073406219</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.06470145285129547</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0.0732426643371582</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="n">
+        <v>365.5850524902344</v>
+      </c>
+      <c r="B451" t="n">
+        <v>4.095529556274414</v>
+      </c>
+      <c r="C451" t="s"/>
+      <c r="D451" t="n">
+        <v>0.009399712085723877</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.05848831310868263</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.06786860525608063</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="n">
+        <v>368.0912780761719</v>
+      </c>
+      <c r="B452" t="n">
+        <v>3.924830913543701</v>
+      </c>
+      <c r="C452" t="s"/>
+      <c r="D452" t="n">
+        <v>0.008361699059605598</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.05067308992147446</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.05977144092321396</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="n">
+        <v>369.4563293457031</v>
+      </c>
+      <c r="B453" t="n">
+        <v>3.919235467910767</v>
+      </c>
+      <c r="C453" t="s"/>
+      <c r="D453" t="n">
+        <v>0.009825605899095535</v>
+      </c>
+      <c r="E453" t="n">
+        <v>0.0457109808921814</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0.05499337986111641</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="n">
+        <v>370.8521118164062</v>
+      </c>
+      <c r="B454" t="n">
+        <v>5.316511154174805</v>
+      </c>
+      <c r="C454" t="s"/>
+      <c r="D454" t="n">
+        <v>0.01233029924333096</v>
+      </c>
+      <c r="E454" t="n">
+        <v>0.08353552967309952</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0.09751106798648834</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="n">
+        <v>374.2470092773438</v>
+      </c>
+      <c r="B455" t="n">
+        <v>5.282313346862793</v>
+      </c>
+      <c r="C455" t="s"/>
+      <c r="D455" t="n">
+        <v>0.01258630678057671</v>
+      </c>
+      <c r="E455" t="n">
+        <v>0.07619106024503708</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0.09071711450815201</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="n">
+        <v>350.1500549316406</v>
+      </c>
+      <c r="B456" t="n">
+        <v>3.777905941009521</v>
+      </c>
+      <c r="C456" t="s"/>
+      <c r="D456" t="n">
+        <v>0.006788303609937429</v>
+      </c>
+      <c r="E456" t="n">
+        <v>0.08120379596948624</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0.08733081072568893</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="n">
+        <v>352.4921569824219</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3.689607620239258</v>
+      </c>
+      <c r="C457" t="s"/>
+      <c r="D457" t="n">
+        <v>0.006671390030533075</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.0732746347784996</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.0793469101190567</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="n">
+        <v>355.0321044921875</v>
+      </c>
+      <c r="B458" t="n">
+        <v>3.635682582855225</v>
+      </c>
+      <c r="C458" t="s"/>
+      <c r="D458" t="n">
+        <v>0.006801249459385872</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.06629180908203125</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.07257184386253357</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="n">
+        <v>356.8777160644531</v>
+      </c>
+      <c r="B459" t="n">
+        <v>4.215858459472656</v>
+      </c>
+      <c r="C459" t="s"/>
+      <c r="D459" t="n">
+        <v>0.008171038702130318</v>
+      </c>
+      <c r="E459" t="n">
+        <v>0.08010859787464142</v>
+      </c>
+      <c r="F459" t="n">
+        <v>0.08831869810819626</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="n">
+        <v>340.4444274902344</v>
+      </c>
+      <c r="B460" t="n">
+        <v>3.415838241577148</v>
+      </c>
+      <c r="C460" t="s"/>
+      <c r="D460" t="n">
+        <v>0.008529389277100563</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.08152880519628525</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0.08968562632799149</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="n">
+        <v>349.8370666503906</v>
+      </c>
+      <c r="B461" t="n">
+        <v>3.091640949249268</v>
+      </c>
+      <c r="C461" t="s"/>
+      <c r="D461" t="n">
+        <v>0.01050540059804916</v>
+      </c>
+      <c r="E461" t="n">
+        <v>0.04738473892211914</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0.05784587934613228</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="n">
+        <v>350.2778625488281</v>
+      </c>
+      <c r="B462" t="n">
+        <v>3.78367280960083</v>
+      </c>
+      <c r="C462" t="s"/>
+      <c r="D462" t="n">
+        <v>0.01218947861343622</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.06672871112823486</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0.07851375639438629</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="n">
+        <v>346.6570739746094</v>
+      </c>
+      <c r="B463" t="n">
+        <v>3.923916816711426</v>
+      </c>
+      <c r="C463" t="s"/>
+      <c r="D463" t="n">
+        <v>0.01172987185418606</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.08069980144500732</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.09162186086177826</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="n">
+        <v>352.2582702636719</v>
+      </c>
+      <c r="B464" t="n">
+        <v>4.436683177947998</v>
+      </c>
+      <c r="C464" t="s"/>
+      <c r="D464" t="n">
+        <v>0.01511956006288528</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.08088831603527069</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.095158651471138</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="n">
+        <v>358.3194580078125</v>
+      </c>
+      <c r="B465" t="n">
+        <v>4.252466201782227</v>
+      </c>
+      <c r="C465" t="s"/>
+      <c r="D465" t="n">
+        <v>0.01602497510612011</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.0597139447927475</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0.07574998587369919</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="n">
+        <v>361.0451354980469</v>
+      </c>
+      <c r="B466" t="n">
+        <v>4.205767631530762</v>
+      </c>
+      <c r="C466" t="s"/>
+      <c r="D466" t="n">
+        <v>0.01649686694145203</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.05294701457023621</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0.06974185258150101</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="n">
+        <v>363.68701171875</v>
+      </c>
+      <c r="B467" t="n">
+        <v>5.776758670806885</v>
+      </c>
+      <c r="C467" t="s"/>
+      <c r="D467" t="n">
+        <v>0.02425948344171047</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0.08693124353885651</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0.1096595525741577</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="n">
+        <v>363.1658630371094</v>
+      </c>
+      <c r="B468" t="n">
+        <v>4.791507244110107</v>
+      </c>
+      <c r="C468" t="s"/>
+      <c r="D468" t="n">
+        <v>0.01818986982107162</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.06570941209793091</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.08370045572519302</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="n">
+        <v>360.4955444335938</v>
+      </c>
+      <c r="B469" t="n">
+        <v>4.894391059875488</v>
+      </c>
+      <c r="C469" t="s"/>
+      <c r="D469" t="n">
+        <v>0.01868978701531887</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.07290895283222198</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.0911581963300705</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="n">
+        <v>357.695068359375</v>
+      </c>
+      <c r="B470" t="n">
+        <v>5.076660633087158</v>
+      </c>
+      <c r="C470" t="s"/>
+      <c r="D470" t="n">
+        <v>0.01811636611819267</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0.08796246349811554</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0.1045043841004372</v>
       </c>
     </row>
   </sheetData>

--- a/ETI/model/ETI_output.xlsx
+++ b/ETI/model/ETI_output.xlsx
@@ -1542,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F470"/>
+  <dimension ref="A1:F537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F68"/>
@@ -10010,6 +10010,1212 @@
       </c>
       <c r="F470" t="n">
         <v>0.1045043841004372</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="n">
+        <v>374.5526428222656</v>
+      </c>
+      <c r="B471" t="n">
+        <v>7.399307250976562</v>
+      </c>
+      <c r="C471" t="s"/>
+      <c r="D471" t="n">
+        <v>0.03342435881495476</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.1045999974012375</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0.1385086178779602</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="n">
+        <v>372.0178833007812</v>
+      </c>
+      <c r="B472" t="n">
+        <v>7.576489448547363</v>
+      </c>
+      <c r="C472" t="s"/>
+      <c r="D472" t="n">
+        <v>0.03743799775838852</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.1043328493833542</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0.1418313235044479</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="n">
+        <v>368.9265747070312</v>
+      </c>
+      <c r="B473" t="n">
+        <v>7.753410339355469</v>
+      </c>
+      <c r="C473" t="s"/>
+      <c r="D473" t="n">
+        <v>0.04183651879429817</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.1037725359201431</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.1447532922029495</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="n">
+        <v>368.8473815917969</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6.267332077026367</v>
+      </c>
+      <c r="C474" t="s"/>
+      <c r="D474" t="n">
+        <v>0.02750187180936337</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.09058506786823273</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.1176904290914536</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="n">
+        <v>366.3935241699219</v>
+      </c>
+      <c r="B475" t="n">
+        <v>6.436202526092529</v>
+      </c>
+      <c r="C475" t="s"/>
+      <c r="D475" t="n">
+        <v>0.03136549144983292</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0.09060721099376678</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0.1214144378900528</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" t="n">
+        <v>363.1267700195312</v>
+      </c>
+      <c r="B476" t="n">
+        <v>6.565267086029053</v>
+      </c>
+      <c r="C476" t="s"/>
+      <c r="D476" t="n">
+        <v>0.03525562584400177</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0.09036123752593994</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0.1245405375957489</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="n">
+        <v>362.6950073242188</v>
+      </c>
+      <c r="B477" t="n">
+        <v>5.576663970947266</v>
+      </c>
+      <c r="C477" t="s"/>
+      <c r="D477" t="n">
+        <v>0.0224643386900425</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.09007500857114792</v>
+      </c>
+      <c r="F477" t="n">
+        <v>0.1125879436731339</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="n">
+        <v>360.090087890625</v>
+      </c>
+      <c r="B478" t="n">
+        <v>5.692475318908691</v>
+      </c>
+      <c r="C478" t="s"/>
+      <c r="D478" t="n">
+        <v>0.02580862864851952</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.09034087508916855</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.1161333173513412</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="n">
+        <v>357.26806640625</v>
+      </c>
+      <c r="B479" t="n">
+        <v>5.802022933959961</v>
+      </c>
+      <c r="C479" t="s"/>
+      <c r="D479" t="n">
+        <v>0.02917652763426304</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.08995321393013</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.1188699305057526</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="n">
+        <v>355.3972778320312</v>
+      </c>
+      <c r="B480" t="n">
+        <v>4.974865913391113</v>
+      </c>
+      <c r="C480" t="s"/>
+      <c r="D480" t="n">
+        <v>0.01816186681389809</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.09324679523706436</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0.1115512549877167</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="n">
+        <v>353.8564453125</v>
+      </c>
+      <c r="B481" t="n">
+        <v>5.066969871520996</v>
+      </c>
+      <c r="C481" t="s"/>
+      <c r="D481" t="n">
+        <v>0.02057898603379726</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.09345755726099014</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0.1140923798084259</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="n">
+        <v>351.2064514160156</v>
+      </c>
+      <c r="B482" t="n">
+        <v>5.106554985046387</v>
+      </c>
+      <c r="C482" t="s"/>
+      <c r="D482" t="n">
+        <v>0.02304917201399803</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.09302732348442078</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0.1160467341542244</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="n">
+        <v>350.3553161621094</v>
+      </c>
+      <c r="B483" t="n">
+        <v>4.177737236022949</v>
+      </c>
+      <c r="C483" t="s"/>
+      <c r="D483" t="n">
+        <v>0.01407757773995399</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0.0798371210694313</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0.09350927174091339</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="n">
+        <v>348.1027221679688</v>
+      </c>
+      <c r="B484" t="n">
+        <v>4.226450443267822</v>
+      </c>
+      <c r="C484" t="s"/>
+      <c r="D484" t="n">
+        <v>0.01624789461493492</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.07989148795604706</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.09586156904697418</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" t="n">
+        <v>344.8871459960938</v>
+      </c>
+      <c r="B485" t="n">
+        <v>4.234574794769287</v>
+      </c>
+      <c r="C485" t="s"/>
+      <c r="D485" t="n">
+        <v>0.01858796738088131</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.0798303633928299</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.09801819175481796</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" t="n">
+        <v>350.2404174804688</v>
+      </c>
+      <c r="B486" t="n">
+        <v>4.136093616485596</v>
+      </c>
+      <c r="C486" t="s"/>
+      <c r="D486" t="n">
+        <v>0.01281749084591866</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.07987304776906967</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.09283823519945145</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" t="n">
+        <v>347.736572265625</v>
+      </c>
+      <c r="B487" t="n">
+        <v>4.176580429077148</v>
+      </c>
+      <c r="C487" t="s"/>
+      <c r="D487" t="n">
+        <v>0.0151293408125639</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.08024036884307861</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.09530298411846161</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" t="n">
+        <v>344.8469543457031</v>
+      </c>
+      <c r="B488" t="n">
+        <v>4.186373233795166</v>
+      </c>
+      <c r="C488" t="s"/>
+      <c r="D488" t="n">
+        <v>0.01735973544418812</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.08034791052341461</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0.09736104309558868</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" t="n">
+        <v>347.1956481933594</v>
+      </c>
+      <c r="B489" t="n">
+        <v>4.259356021881104</v>
+      </c>
+      <c r="C489" t="s"/>
+      <c r="D489" t="n">
+        <v>0.01382449269294739</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.09357286989688873</v>
+      </c>
+      <c r="F489" t="n">
+        <v>0.1068654656410217</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" t="n">
+        <v>346.0694274902344</v>
+      </c>
+      <c r="B490" t="n">
+        <v>4.267468929290771</v>
+      </c>
+      <c r="C490" t="s"/>
+      <c r="D490" t="n">
+        <v>0.01477422565221786</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.09354664385318756</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.1078677624464035</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" t="n">
+        <v>343.4734497070312</v>
+      </c>
+      <c r="B491" t="n">
+        <v>4.275151252746582</v>
+      </c>
+      <c r="C491" t="s"/>
+      <c r="D491" t="n">
+        <v>0.01683207787573338</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.09355158358812332</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.1098484694957733</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" t="n">
+        <v>347.9479370117188</v>
+      </c>
+      <c r="B492" t="n">
+        <v>4.067207336425781</v>
+      </c>
+      <c r="C492" t="s"/>
+      <c r="D492" t="n">
+        <v>0.01294649392366409</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.08269566297531128</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0.09580913931131363</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" t="n">
+        <v>346.1060180664062</v>
+      </c>
+      <c r="B493" t="n">
+        <v>4.095913410186768</v>
+      </c>
+      <c r="C493" t="s"/>
+      <c r="D493" t="n">
+        <v>0.01469874382019043</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.08274344354867935</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0.09766298532485962</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" t="n">
+        <v>343.221435546875</v>
+      </c>
+      <c r="B494" t="n">
+        <v>4.098908424377441</v>
+      </c>
+      <c r="C494" t="s"/>
+      <c r="D494" t="n">
+        <v>0.01682043634355068</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.0827978104352951</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0.09966230392456055</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" t="n">
+        <v>366.2339172363281</v>
+      </c>
+      <c r="B495" t="n">
+        <v>4.746771812438965</v>
+      </c>
+      <c r="C495" t="s"/>
+      <c r="D495" t="n">
+        <v>0.01734722405672073</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.06412876397371292</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0.0816052034497261</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" t="n">
+        <v>364.6136474609375</v>
+      </c>
+      <c r="B496" t="n">
+        <v>4.733687400817871</v>
+      </c>
+      <c r="C496" t="s"/>
+      <c r="D496" t="n">
+        <v>0.01402846910059452</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.07120218127965927</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.08466042578220367</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" t="n">
+        <v>360.940673828125</v>
+      </c>
+      <c r="B497" t="n">
+        <v>4.888542175292969</v>
+      </c>
+      <c r="C497" t="s"/>
+      <c r="D497" t="n">
+        <v>0.01362751051783562</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.08621308207511902</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.100889764726162</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" t="n">
+        <v>352.115478515625</v>
+      </c>
+      <c r="B498" t="n">
+        <v>3.697196006774902</v>
+      </c>
+      <c r="C498" t="s"/>
+      <c r="D498" t="n">
+        <v>0.007734732702374458</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0.06663522124290466</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0.07295729964971542</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" t="n">
+        <v>348.5307312011719</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.757191896438599</v>
+      </c>
+      <c r="C499" t="s"/>
+      <c r="D499" t="n">
+        <v>0.007004631217569113</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.08104641735553741</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0.08736743032932281</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" t="n">
+        <v>351.3526611328125</v>
+      </c>
+      <c r="B500" t="n">
+        <v>3.253555536270142</v>
+      </c>
+      <c r="C500" t="s"/>
+      <c r="D500" t="n">
+        <v>0.009509299881756306</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.04817859083414078</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0.05813570693135262</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" t="n">
+        <v>342.5346374511719</v>
+      </c>
+      <c r="B501" t="n">
+        <v>3.4066481590271</v>
+      </c>
+      <c r="C501" t="s"/>
+      <c r="D501" t="n">
+        <v>0.007327170576900244</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.08077728748321533</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0.0880853682756424</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="n">
+        <v>354.8875427246094</v>
+      </c>
+      <c r="B502" t="n">
+        <v>4.345186710357666</v>
+      </c>
+      <c r="C502" t="s"/>
+      <c r="D502" t="n">
+        <v>0.01310478895902634</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.07911873608827591</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.09319599717855453</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="n">
+        <v>360.7579956054688</v>
+      </c>
+      <c r="B503" t="n">
+        <v>4.166991233825684</v>
+      </c>
+      <c r="C503" t="s"/>
+      <c r="D503" t="n">
+        <v>0.01418869942426682</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.05862421542406082</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.07293157279491425</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="n">
+        <v>362.9909057617188</v>
+      </c>
+      <c r="B504" t="n">
+        <v>4.114896774291992</v>
+      </c>
+      <c r="C504" t="s"/>
+      <c r="D504" t="n">
+        <v>0.01425114087760448</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.05253763869404793</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.06705989688634872</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" t="n">
+        <v>367.4483947753906</v>
+      </c>
+      <c r="B505" t="n">
+        <v>5.651972770690918</v>
+      </c>
+      <c r="C505" t="s"/>
+      <c r="D505" t="n">
+        <v>0.02095203846693039</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.08451095223426819</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0.1069562509655952</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" t="n">
+        <v>367.6734008789062</v>
+      </c>
+      <c r="B506" t="n">
+        <v>4.591620922088623</v>
+      </c>
+      <c r="C506" t="s"/>
+      <c r="D506" t="n">
+        <v>0.0102913212031126</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.07181037217378616</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0.08141238987445831</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" t="n">
+        <v>370.2491760253906</v>
+      </c>
+      <c r="B507" t="n">
+        <v>4.515097141265869</v>
+      </c>
+      <c r="C507" t="s"/>
+      <c r="D507" t="n">
+        <v>0.01064686849713326</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.06488724797964096</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.07464905083179474</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" t="n">
+        <v>362.8507385253906</v>
+      </c>
+      <c r="B508" t="n">
+        <v>4.756605625152588</v>
+      </c>
+      <c r="C508" t="s"/>
+      <c r="D508" t="n">
+        <v>0.01045742724090815</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.08649242669343948</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.09764514863491058</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" t="n">
+        <v>378.130126953125</v>
+      </c>
+      <c r="B509" t="n">
+        <v>4.318371295928955</v>
+      </c>
+      <c r="C509" t="s"/>
+      <c r="D509" t="n">
+        <v>0.01203770376741886</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.04716044291853905</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.05855653062462807</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" t="n">
+        <v>354.4917297363281</v>
+      </c>
+      <c r="B510" t="n">
+        <v>3.166866302490234</v>
+      </c>
+      <c r="C510" t="s"/>
+      <c r="D510" t="n">
+        <v>0.006535565014928579</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.0476747527718544</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.05458817631006241</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" t="n">
+        <v>351.8450012207031</v>
+      </c>
+      <c r="B511" t="n">
+        <v>3.215807437896729</v>
+      </c>
+      <c r="C511" t="s"/>
+      <c r="D511" t="n">
+        <v>0.006555505096912384</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.05379009991884232</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.06040341407060623</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" t="n">
+        <v>349.4437866210938</v>
+      </c>
+      <c r="B512" t="n">
+        <v>3.226454019546509</v>
+      </c>
+      <c r="C512" t="s"/>
+      <c r="D512" t="n">
+        <v>0.005691728089004755</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.05936600267887115</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.06485176086425781</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" t="n">
+        <v>347.1059875488281</v>
+      </c>
+      <c r="B513" t="n">
+        <v>3.285223960876465</v>
+      </c>
+      <c r="C513" t="s"/>
+      <c r="D513" t="n">
+        <v>0.0058675198815763</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.06644158065319061</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.07172061502933502</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" t="n">
+        <v>344.8601684570312</v>
+      </c>
+      <c r="B514" t="n">
+        <v>3.344521760940552</v>
+      </c>
+      <c r="C514" t="s"/>
+      <c r="D514" t="n">
+        <v>0.006104684434831142</v>
+      </c>
+      <c r="E514" t="n">
+        <v>0.0742996484041214</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.0793362557888031</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
+      <c r="A515" t="n">
+        <v>342.6107788085938</v>
+      </c>
+      <c r="B515" t="n">
+        <v>3.356493234634399</v>
+      </c>
+      <c r="C515" t="s"/>
+      <c r="D515" t="n">
+        <v>0.00597151555120945</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0.08160407841205597</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.08666332066059113</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
+      <c r="A516" t="n">
+        <v>359.5621948242188</v>
+      </c>
+      <c r="B516" t="n">
+        <v>4.121946811676025</v>
+      </c>
+      <c r="C516" t="s"/>
+      <c r="D516" t="n">
+        <v>0.00814787857234478</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0.07253944873809814</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.08001774549484253</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
+      <c r="A517" t="n">
+        <v>362.3395080566406</v>
+      </c>
+      <c r="B517" t="n">
+        <v>4.050258636474609</v>
+      </c>
+      <c r="C517" t="s"/>
+      <c r="D517" t="n">
+        <v>0.007917414419353008</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.06496508419513702</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.07219371199607849</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
+      <c r="A518" t="n">
+        <v>364.8977966308594</v>
+      </c>
+      <c r="B518" t="n">
+        <v>4.031003952026367</v>
+      </c>
+      <c r="C518" t="s"/>
+      <c r="D518" t="n">
+        <v>0.00939665362238884</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.05857763066887856</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.06758294254541397</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
+      <c r="A519" t="n">
+        <v>367.8111267089844</v>
+      </c>
+      <c r="B519" t="n">
+        <v>3.920561075210571</v>
+      </c>
+      <c r="C519" t="s"/>
+      <c r="D519" t="n">
+        <v>0.007785728201270103</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.05291476100683212</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.05945082381367683</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
+      <c r="A520" t="n">
+        <v>370.0029602050781</v>
+      </c>
+      <c r="B520" t="n">
+        <v>3.900033712387085</v>
+      </c>
+      <c r="C520" t="s"/>
+      <c r="D520" t="n">
+        <v>0.009280499070882797</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.04667514190077782</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.05589168891310692</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="A521" t="n">
+        <v>372.4000244140625</v>
+      </c>
+      <c r="B521" t="n">
+        <v>5.215861320495605</v>
+      </c>
+      <c r="C521" t="s"/>
+      <c r="D521" t="n">
+        <v>0.01079937629401684</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0.08409864455461502</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.09509614109992981</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
+      <c r="A522" t="n">
+        <v>374.7027587890625</v>
+      </c>
+      <c r="B522" t="n">
+        <v>5.139810085296631</v>
+      </c>
+      <c r="C522" t="s"/>
+      <c r="D522" t="n">
+        <v>0.01139170676469803</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.07725395262241364</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.08754834532737732</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="A523" t="n">
+        <v>349.5006713867188</v>
+      </c>
+      <c r="B523" t="n">
+        <v>3.775034189224243</v>
+      </c>
+      <c r="C523" t="s"/>
+      <c r="D523" t="n">
+        <v>0.007497232407331467</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.08079589903354645</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.0881628692150116</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
+      <c r="A524" t="n">
+        <v>351.5435180664062</v>
+      </c>
+      <c r="B524" t="n">
+        <v>3.706623792648315</v>
+      </c>
+      <c r="C524" t="s"/>
+      <c r="D524" t="n">
+        <v>0.007535992190241814</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0.07251506298780441</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.07987520098686218</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="A525" t="n">
+        <v>353.9359130859375</v>
+      </c>
+      <c r="B525" t="n">
+        <v>3.661726474761963</v>
+      </c>
+      <c r="C525" t="s"/>
+      <c r="D525" t="n">
+        <v>0.007616857532411814</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.06558165699243546</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.07306557893753052</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="A526" t="n">
+        <v>357.203857421875</v>
+      </c>
+      <c r="B526" t="n">
+        <v>4.191045761108398</v>
+      </c>
+      <c r="C526" t="s"/>
+      <c r="D526" t="n">
+        <v>0.008190782740712166</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0.0796511173248291</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.08799979090690613</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="A527" t="n">
+        <v>340.5771789550781</v>
+      </c>
+      <c r="B527" t="n">
+        <v>3.45012378692627</v>
+      </c>
+      <c r="C527" t="s"/>
+      <c r="D527" t="n">
+        <v>0.008992945775389671</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.08199769258499146</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.09058773517608643</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="A528" t="n">
+        <v>348.1864013671875</v>
+      </c>
+      <c r="B528" t="n">
+        <v>3.245207071304321</v>
+      </c>
+      <c r="C528" t="s"/>
+      <c r="D528" t="n">
+        <v>0.01081047020852566</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.04847755283117294</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.05938495323061943</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="A529" t="n">
+        <v>349.8963623046875</v>
+      </c>
+      <c r="B529" t="n">
+        <v>3.819781303405762</v>
+      </c>
+      <c r="C529" t="s"/>
+      <c r="D529" t="n">
+        <v>0.01278266683220863</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0.06588727235794067</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.0788489431142807</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
+      <c r="A530" t="n">
+        <v>347.4916076660156</v>
+      </c>
+      <c r="B530" t="n">
+        <v>3.945669651031494</v>
+      </c>
+      <c r="C530" t="s"/>
+      <c r="D530" t="n">
+        <v>0.01211258769035339</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0.07982030510902405</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.09245890378952026</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
+      <c r="A531" t="n">
+        <v>353.2923889160156</v>
+      </c>
+      <c r="B531" t="n">
+        <v>4.433284282684326</v>
+      </c>
+      <c r="C531" t="s"/>
+      <c r="D531" t="n">
+        <v>0.01535934954881668</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.07950110733509064</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.09570814669132233</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="A532" t="n">
+        <v>358.3442993164062</v>
+      </c>
+      <c r="B532" t="n">
+        <v>4.243669509887695</v>
+      </c>
+      <c r="C532" t="s"/>
+      <c r="D532" t="n">
+        <v>0.01623845100402832</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.05886260420084</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.07536493241786957</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="A533" t="n">
+        <v>360.6668090820312</v>
+      </c>
+      <c r="B533" t="n">
+        <v>4.192774772644043</v>
+      </c>
+      <c r="C533" t="s"/>
+      <c r="D533" t="n">
+        <v>0.01641892269253731</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.05306017398834229</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.06950708478689194</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
+      <c r="A534" t="n">
+        <v>365.6856079101562</v>
+      </c>
+      <c r="B534" t="n">
+        <v>5.829328536987305</v>
+      </c>
+      <c r="C534" t="s"/>
+      <c r="D534" t="n">
+        <v>0.02468942850828171</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.08441247791051865</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.1103349253535271</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
+      <c r="A535" t="n">
+        <v>363.2415161132812</v>
+      </c>
+      <c r="B535" t="n">
+        <v>4.72107982635498</v>
+      </c>
+      <c r="C535" t="s"/>
+      <c r="D535" t="n">
+        <v>0.01853075809776783</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.06422524154186249</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.08297356218099594</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
+      <c r="A536" t="n">
+        <v>361.0406799316406</v>
+      </c>
+      <c r="B536" t="n">
+        <v>4.852203369140625</v>
+      </c>
+      <c r="C536" t="s"/>
+      <c r="D536" t="n">
+        <v>0.01908881030976772</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.0711066722869873</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.09065914154052734</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
+      <c r="A537" t="n">
+        <v>359.5016479492188</v>
+      </c>
+      <c r="B537" t="n">
+        <v>5.074614524841309</v>
+      </c>
+      <c r="C537" t="s"/>
+      <c r="D537" t="n">
+        <v>0.01810726337134838</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.08597752451896667</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.1057001277804375</v>
       </c>
     </row>
   </sheetData>
